--- a/dist/document/dest/2020/10/doctors/26.xlsx
+++ b/dist/document/dest/2020/10/doctors/26.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>23</v>
       </c>
-      <c r="C2" s="1">
-        <v>139150</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>468</v>
       </c>
-      <c r="C3" s="1">
-        <v>1076400</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>150</v>
       </c>
-      <c r="C4" s="1">
-        <v>1155000</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>2727</v>
       </c>
-      <c r="C5" s="1">
-        <v>23997600</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>1401</v>
       </c>
-      <c r="C6" s="1">
-        <v>389478</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>380</v>
       </c>
-      <c r="C7" s="1">
-        <v>2185000</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>456</v>
       </c>
-      <c r="C8" s="1">
-        <v>786600</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>1368</v>
       </c>
-      <c r="C9" s="1">
-        <v>10533600</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>180</v>
       </c>
-      <c r="C10" s="1">
-        <v>538200</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>565</v>
       </c>
-      <c r="C11" s="1">
-        <v>1949250</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>60</v>
       </c>
-      <c r="C12" s="1">
-        <v>448800</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>5310</v>
       </c>
-      <c r="C13" s="1">
-        <v>30957300</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>1295</v>
       </c>
-      <c r="C14" s="1">
-        <v>2829575</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>1538</v>
       </c>
-      <c r="C15" s="1">
-        <v>15057020</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>310</v>
       </c>
-      <c r="C16" s="1">
-        <v>2216500</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>10720</v>
       </c>
-      <c r="C17" s="1">
-        <v>27657600</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>90</v>
       </c>
-      <c r="C18" s="1">
-        <v>1262250</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>790</v>
       </c>
-      <c r="C19" s="1">
-        <v>5691950</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>45</v>
       </c>
-      <c r="C20" s="1">
-        <v>643500</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>225</v>
       </c>
-      <c r="C21" s="1">
-        <v>2227500</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>484</v>
       </c>
-      <c r="C22" s="1">
-        <v>6388800</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>810</v>
       </c>
-      <c r="C23" s="1">
-        <v>2559600</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>328</v>
       </c>
-      <c r="C24" s="1">
-        <v>5051200</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>1025</v>
       </c>
-      <c r="C25" s="1">
-        <v>12402500</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>2482</v>
       </c>
-      <c r="C26" s="1">
-        <v>8562900</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>285</v>
       </c>
-      <c r="C27" s="1">
-        <v>1938000</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>90</v>
       </c>
-      <c r="C28" s="1">
-        <v>369900</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>150</v>
       </c>
-      <c r="C29" s="1">
-        <v>1287000</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>634</v>
       </c>
-      <c r="C30" s="1">
-        <v>4149530</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>516</v>
       </c>
-      <c r="C31" s="1">
-        <v>3405600</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>20</v>
       </c>
-      <c r="C32" s="1">
-        <v>129800</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>7</v>
       </c>
-      <c r="C33" s="1">
-        <v>18970</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>197</v>
       </c>
-      <c r="C34" s="1">
-        <v>2058650</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>670</v>
       </c>
-      <c r="C35" s="1">
-        <v>7959600</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>148</v>
       </c>
-      <c r="C36" s="1">
-        <v>714840</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>421</v>
       </c>
-      <c r="C37" s="1">
-        <v>6714950</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -800,9 +692,6 @@
       <c r="B38" s="1">
         <v>255</v>
       </c>
-      <c r="C38" s="1">
-        <v>3927000</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -811,9 +700,6 @@
       <c r="B39" s="1">
         <v>200</v>
       </c>
-      <c r="C39" s="1">
-        <v>1980000</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -822,9 +708,6 @@
       <c r="B40" s="1">
         <v>145</v>
       </c>
-      <c r="C40" s="1">
-        <v>500250</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -833,9 +716,6 @@
       <c r="B41" s="1">
         <v>340</v>
       </c>
-      <c r="C41" s="1">
-        <v>1564000</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -844,9 +724,6 @@
       <c r="B42" s="1">
         <v>1500</v>
       </c>
-      <c r="C42" s="1">
-        <v>8580000</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -855,9 +732,6 @@
       <c r="B43" s="1">
         <v>3085</v>
       </c>
-      <c r="C43" s="1">
-        <v>7805050</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -866,9 +740,6 @@
       <c r="B44" s="1">
         <v>1475</v>
       </c>
-      <c r="C44" s="1">
-        <v>32125500</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -877,9 +748,6 @@
       <c r="B45" s="1">
         <v>90</v>
       </c>
-      <c r="C45" s="1">
-        <v>341550</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -888,9 +756,6 @@
       <c r="B46" s="1">
         <v>380</v>
       </c>
-      <c r="C46" s="1">
-        <v>4446000</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -899,9 +764,6 @@
       <c r="B47" s="1">
         <v>90</v>
       </c>
-      <c r="C47" s="1">
-        <v>1053000</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -910,9 +772,6 @@
       <c r="B48" s="1">
         <v>210</v>
       </c>
-      <c r="C48" s="1">
-        <v>2032800</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -921,9 +780,6 @@
       <c r="B49" s="1">
         <v>28</v>
       </c>
-      <c r="C49" s="1">
-        <v>8288000</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -932,9 +788,6 @@
       <c r="B50" s="1">
         <v>1595</v>
       </c>
-      <c r="C50" s="1">
-        <v>21054000</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -943,9 +796,6 @@
       <c r="B51" s="1">
         <v>120</v>
       </c>
-      <c r="C51" s="1">
-        <v>202800</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -954,9 +804,6 @@
       <c r="B52" s="1">
         <v>5</v>
       </c>
-      <c r="C52" s="1">
-        <v>5775</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -965,9 +812,6 @@
       <c r="B53" s="1">
         <v>910</v>
       </c>
-      <c r="C53" s="1">
-        <v>3872050</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -976,9 +820,6 @@
       <c r="B54" s="1">
         <v>4640</v>
       </c>
-      <c r="C54" s="1">
-        <v>34707200</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -987,9 +828,6 @@
       <c r="B55" s="1">
         <v>1659</v>
       </c>
-      <c r="C55" s="1">
-        <v>9157680</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -998,9 +836,6 @@
       <c r="B56" s="1">
         <v>80</v>
       </c>
-      <c r="C56" s="1">
-        <v>1293600</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -1009,9 +844,6 @@
       <c r="B57" s="1">
         <v>3619</v>
       </c>
-      <c r="C57" s="1">
-        <v>11653180</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -1020,9 +852,6 @@
       <c r="B58" s="1">
         <v>105</v>
       </c>
-      <c r="C58" s="1">
-        <v>193200</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -1031,9 +860,6 @@
       <c r="B59" s="1">
         <v>127</v>
       </c>
-      <c r="C59" s="1">
-        <v>572770</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -1042,9 +868,6 @@
       <c r="B60" s="1">
         <v>20</v>
       </c>
-      <c r="C60" s="1">
-        <v>25300</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -1053,9 +876,6 @@
       <c r="B61" s="1">
         <v>60</v>
       </c>
-      <c r="C61" s="1">
-        <v>336600</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
@@ -1064,9 +884,6 @@
       <c r="B62" s="1">
         <v>750</v>
       </c>
-      <c r="C62" s="1">
-        <v>9487500</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -1075,9 +892,6 @@
       <c r="B63" s="1">
         <v>120</v>
       </c>
-      <c r="C63" s="1">
-        <v>254400</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -1086,9 +900,6 @@
       <c r="B64" s="1">
         <v>10</v>
       </c>
-      <c r="C64" s="1">
-        <v>77000</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
@@ -1097,9 +908,6 @@
       <c r="B65" s="1">
         <v>2421</v>
       </c>
-      <c r="C65" s="1">
-        <v>6681960</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
@@ -1108,9 +916,6 @@
       <c r="B66" s="1">
         <v>804</v>
       </c>
-      <c r="C66" s="1">
-        <v>30511800</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
@@ -1119,9 +924,6 @@
       <c r="B67" s="1">
         <v>1</v>
       </c>
-      <c r="C67" s="1">
-        <v>288800</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -1130,9 +932,6 @@
       <c r="B68" s="1">
         <v>1957</v>
       </c>
-      <c r="C68" s="1">
-        <v>13131470</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -1141,9 +940,6 @@
       <c r="B69" s="1">
         <v>1972</v>
       </c>
-      <c r="C69" s="1">
-        <v>24945800</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
@@ -1152,9 +948,6 @@
       <c r="B70" s="1">
         <v>790</v>
       </c>
-      <c r="C70" s="1">
-        <v>3634000</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
@@ -1163,9 +956,6 @@
       <c r="B71" s="1">
         <v>240</v>
       </c>
-      <c r="C71" s="1">
-        <v>2376000</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -1174,9 +964,6 @@
       <c r="B72" s="1">
         <v>140</v>
       </c>
-      <c r="C72" s="1">
-        <v>345800</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -1185,9 +972,6 @@
       <c r="B73" s="1">
         <v>4323</v>
       </c>
-      <c r="C73" s="1">
-        <v>32898030</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
@@ -1196,9 +980,6 @@
       <c r="B74" s="1">
         <v>930</v>
       </c>
-      <c r="C74" s="1">
-        <v>7825950</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
@@ -1207,9 +988,6 @@
       <c r="B75" s="1">
         <v>120</v>
       </c>
-      <c r="C75" s="1">
-        <v>258000</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
@@ -1218,9 +996,6 @@
       <c r="B76" s="1">
         <v>100</v>
       </c>
-      <c r="C76" s="1">
-        <v>8250000</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
@@ -1229,9 +1004,6 @@
       <c r="B77" s="1">
         <v>509</v>
       </c>
-      <c r="C77" s="1">
-        <v>509000</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
@@ -1240,9 +1012,6 @@
       <c r="B78" s="1">
         <v>1024</v>
       </c>
-      <c r="C78" s="1">
-        <v>2114560</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
@@ -1251,9 +1020,6 @@
       <c r="B79" s="1">
         <v>1845</v>
       </c>
-      <c r="C79" s="1">
-        <v>7638300</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
@@ -1262,9 +1028,6 @@
       <c r="B80" s="1">
         <v>2660</v>
       </c>
-      <c r="C80" s="1">
-        <v>10706500</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
@@ -1273,9 +1036,6 @@
       <c r="B81" s="1">
         <v>1900</v>
       </c>
-      <c r="C81" s="1">
-        <v>28215000</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
@@ -1284,9 +1044,6 @@
       <c r="B82" s="1">
         <v>3320</v>
       </c>
-      <c r="C82" s="1">
-        <v>29216000</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
@@ -1295,9 +1052,6 @@
       <c r="B83" s="1">
         <v>300</v>
       </c>
-      <c r="C83" s="1">
-        <v>5445000</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
@@ -1306,9 +1060,6 @@
       <c r="B84" s="1">
         <v>759</v>
       </c>
-      <c r="C84" s="1">
-        <v>5426850</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
@@ -1317,9 +1068,6 @@
       <c r="B85" s="1">
         <v>14</v>
       </c>
-      <c r="C85" s="1">
-        <v>246400</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
@@ -1328,9 +1076,6 @@
       <c r="B86" s="1">
         <v>1781</v>
       </c>
-      <c r="C86" s="1">
-        <v>2146105</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
@@ -1339,9 +1084,6 @@
       <c r="B87" s="1">
         <v>3834</v>
       </c>
-      <c r="C87" s="1">
-        <v>35426160</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
@@ -1350,9 +1092,6 @@
       <c r="B88" s="1">
         <v>480</v>
       </c>
-      <c r="C88" s="1">
-        <v>2428800</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
@@ -1361,9 +1100,6 @@
       <c r="B89" s="1">
         <v>60</v>
       </c>
-      <c r="C89" s="1">
-        <v>15240</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
@@ -1372,9 +1108,6 @@
       <c r="B90" s="1">
         <v>270</v>
       </c>
-      <c r="C90" s="1">
-        <v>1242000</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
@@ -1383,9 +1116,6 @@
       <c r="B91" s="1">
         <v>1370</v>
       </c>
-      <c r="C91" s="1">
-        <v>5432050</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
@@ -1394,9 +1124,6 @@
       <c r="B92" s="1">
         <v>385</v>
       </c>
-      <c r="C92" s="1">
-        <v>3599750</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
@@ -1405,9 +1132,6 @@
       <c r="B93" s="1">
         <v>30</v>
       </c>
-      <c r="C93" s="1">
-        <v>162150</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
@@ -1416,9 +1140,6 @@
       <c r="B94" s="1">
         <v>1478</v>
       </c>
-      <c r="C94" s="1">
-        <v>4589190</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
@@ -1427,9 +1148,6 @@
       <c r="B95" s="1">
         <v>2</v>
       </c>
-      <c r="C95" s="1">
-        <v>220000</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
@@ -1438,9 +1156,6 @@
       <c r="B96" s="1">
         <v>1305</v>
       </c>
-      <c r="C96" s="1">
-        <v>14211450</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
@@ -1449,9 +1164,6 @@
       <c r="B97" s="1">
         <v>90</v>
       </c>
-      <c r="C97" s="1">
-        <v>372600</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
@@ -1460,9 +1172,6 @@
       <c r="B98" s="1">
         <v>654</v>
       </c>
-      <c r="C98" s="1">
-        <v>1052940</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
@@ -1471,9 +1180,6 @@
       <c r="B99" s="1">
         <v>1335</v>
       </c>
-      <c r="C99" s="1">
-        <v>11454300</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
@@ -1482,9 +1188,6 @@
       <c r="B100" s="1">
         <v>776</v>
       </c>
-      <c r="C100" s="1">
-        <v>3523040</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
@@ -1493,9 +1196,6 @@
       <c r="B101" s="1">
         <v>105</v>
       </c>
-      <c r="C101" s="1">
-        <v>924000</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
@@ -1504,9 +1204,6 @@
       <c r="B102" s="1">
         <v>523</v>
       </c>
-      <c r="C102" s="1">
-        <v>5097158</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
@@ -1515,9 +1212,6 @@
       <c r="B103" s="1">
         <v>486</v>
       </c>
-      <c r="C103" s="1">
-        <v>2347380</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
@@ -1526,9 +1220,6 @@
       <c r="B104" s="1">
         <v>255</v>
       </c>
-      <c r="C104" s="1">
-        <v>1319625</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
@@ -1537,9 +1228,6 @@
       <c r="B105" s="1">
         <v>1080</v>
       </c>
-      <c r="C105" s="1">
-        <v>8224200</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
@@ -1548,9 +1236,6 @@
       <c r="B106" s="1">
         <v>1137</v>
       </c>
-      <c r="C106" s="1">
-        <v>6014730</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
@@ -1559,9 +1244,6 @@
       <c r="B107" s="1">
         <v>8</v>
       </c>
-      <c r="C107" s="1">
-        <v>98400</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
@@ -1570,9 +1252,6 @@
       <c r="B108" s="1">
         <v>30</v>
       </c>
-      <c r="C108" s="1">
-        <v>810000</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
@@ -1581,9 +1260,6 @@
       <c r="B109" s="1">
         <v>90</v>
       </c>
-      <c r="C109" s="1">
-        <v>310500</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
@@ -1593,7 +1269,7 @@
         <v>101679</v>
       </c>
       <c r="C110" s="1">
-        <v>692677306</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/26.xlsx
+++ b/dist/document/dest/2020/10/doctors/26.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C533"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,10 +399,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Albenca 400mg (Albendazole)</v>
+        <v>Alphachymotrypsin BVP 8400</v>
       </c>
       <c r="B2" s="1">
-        <v>23</v>
+        <v>60</v>
+      </c>
+      <c r="C2" s="1">
+        <v>138000</v>
       </c>
     </row>
     <row r="3">
@@ -410,871 +413,5845 @@
         <v>Alphachymotrypsin BVP 8400</v>
       </c>
       <c r="B3" s="1">
-        <v>468</v>
+        <v>328</v>
+      </c>
+      <c r="C3" s="1">
+        <v>754400</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Aluantine (Almagate 500mg)</v>
+        <v>Alphachymotrypsin BVP 8400</v>
       </c>
       <c r="B4" s="1">
-        <v>150</v>
+        <v>60</v>
+      </c>
+      <c r="C4" s="1">
+        <v>138000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Aluantine (Almagate 500mg)</v>
+        <v>Alphachymotrypsin BVP 8400</v>
       </c>
       <c r="B5" s="1">
-        <v>2727</v>
+        <v>28</v>
+      </c>
+      <c r="C5" s="1">
+        <v>64400</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Amitriptyline (Elavil 25)</v>
+        <v>Alphachymotrypsin BVP 8400</v>
       </c>
       <c r="B6" s="1">
-        <v>1401</v>
+        <v>60</v>
+      </c>
+      <c r="C6" s="1">
+        <v>138000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Anbach (Ginkgo biloba 80mg)</v>
+        <v>Aluantine (Almagate 500mg)</v>
       </c>
       <c r="B7" s="1">
-        <v>380</v>
+        <v>405</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3564000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Arthur (Trimebutine 200mg)</v>
+        <v>Aluantine (Almagate 500mg)</v>
       </c>
       <c r="B8" s="1">
-        <v>456</v>
+        <v>495</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4356000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
+        <v>Aluantine (Almagate 500mg)</v>
       </c>
       <c r="B9" s="1">
-        <v>1368</v>
+        <v>2583</v>
+      </c>
+      <c r="C9" s="1">
+        <v>22730400</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Azukon MR (Gliclazide B.P 30mg)</v>
+        <v>Aluantine (Almagate 500mg)</v>
       </c>
       <c r="B10" s="1">
-        <v>180</v>
+        <v>240</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2112000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Baci-subti (Bacillus subtilis)</v>
+        <v>Aluantine (Almagate 500mg)</v>
       </c>
       <c r="B11" s="1">
-        <v>565</v>
+        <v>388</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3414400</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Bilomag (Ginkgo biloba 80mg)</v>
+        <v>Aluantine (Almagate 500mg)</v>
       </c>
       <c r="B12" s="1">
-        <v>60</v>
+        <v>150</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1320000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Bonlutin (Glucosamine, chondroitin,fish Oil)</v>
+        <v>Aluantine (Almagate 500mg)</v>
       </c>
       <c r="B13" s="1">
-        <v>5310</v>
+        <v>285</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2508000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Bonsartine (Losartan 25mg)</v>
+        <v>Aluantine (Almagate 500mg)</v>
       </c>
       <c r="B14" s="1">
-        <v>1295</v>
+        <v>240</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2112000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Bonzacim (Rosuvastatin 10mg)</v>
+        <v>Aluantine (Almagate 500mg)</v>
       </c>
       <c r="B15" s="1">
-        <v>1538</v>
+        <v>28</v>
+      </c>
+      <c r="C15" s="1">
+        <v>246400</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Busfan 8 (Thiocolchicosid 8mg)</v>
+        <v>Amitriptyline (Elavil 25)</v>
       </c>
       <c r="B16" s="1">
-        <v>310</v>
+        <v>165</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45870</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Bustidin (Trimetazidin 20mg)</v>
+        <v>Amitriptyline (Elavil 25)</v>
       </c>
       <c r="B17" s="1">
-        <v>10720</v>
+        <v>75</v>
+      </c>
+      <c r="C17" s="1">
+        <v>20850</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Cadigrel (Clopidogrel 75mg)</v>
+        <v>Amitriptyline (Elavil 25)</v>
       </c>
       <c r="B18" s="1">
         <v>90</v>
       </c>
+      <c r="C18" s="1">
+        <v>25020</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Camoas (Flavoxat 200mg)</v>
+        <v>Amitriptyline (Elavil 25)</v>
       </c>
       <c r="B19" s="1">
-        <v>790</v>
+        <v>660</v>
+      </c>
+      <c r="C19" s="1">
+        <v>183480</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Cardorite (Rosuvastatin 20mg)</v>
+        <v>Amitriptyline (Elavil 25)</v>
       </c>
       <c r="B20" s="1">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="C20" s="1">
+        <v>8340</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Cefass (Etoricoxib 90mg)</v>
+        <v>Amitriptyline (Elavil 25)</v>
       </c>
       <c r="B21" s="1">
-        <v>225</v>
+        <v>187</v>
+      </c>
+      <c r="C21" s="1">
+        <v>51986</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Celevox (Levofloxacin 500mg)</v>
+        <v>Amitriptyline (Elavil 25)</v>
       </c>
       <c r="B22" s="1">
-        <v>484</v>
+        <v>30</v>
+      </c>
+      <c r="C22" s="1">
+        <v>8340</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Cigenol</v>
+        <v>Amitriptyline (Elavil 25)</v>
       </c>
       <c r="B23" s="1">
-        <v>810</v>
+        <v>75</v>
+      </c>
+      <c r="C23" s="1">
+        <v>20850</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Clatab (Clarithromycin 500mg)</v>
+        <v>Amitriptyline (Elavil 25)</v>
       </c>
       <c r="B24" s="1">
-        <v>328</v>
+        <v>60</v>
+      </c>
+      <c r="C24" s="1">
+        <v>16680</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Copedina (Clopidogrel 75mg)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B25" s="1">
-        <v>1025</v>
+        <v>60</v>
+      </c>
+      <c r="C25" s="1">
+        <v>345000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Corbis (Bisoprolol 5mg)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B26" s="1">
-        <v>2482</v>
+        <v>240</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1380000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Coversyl 5mg (Perindopril arginine)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B27" s="1">
-        <v>285</v>
+        <v>480</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2760000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Daflon (Diosmin, hesperidin)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B28" s="1">
-        <v>90</v>
+        <v>180</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1035000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Dagocti (Dutasteride 0.5mg)</v>
+        <v>Arthur (Trimebutine 200mg)</v>
       </c>
       <c r="B29" s="1">
-        <v>150</v>
+        <v>126</v>
+      </c>
+      <c r="C29" s="1">
+        <v>217350</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Diosfort (Diosmin 600mg)</v>
+        <v>Arthur (Trimebutine 200mg)</v>
       </c>
       <c r="B30" s="1">
-        <v>634</v>
+        <v>60</v>
+      </c>
+      <c r="C30" s="1">
+        <v>103500</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>E-Cox (Etoricoxib 60mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B31" s="1">
-        <v>516</v>
+        <v>120</v>
+      </c>
+      <c r="C31" s="1">
+        <v>924000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Elpertone (Erdosteine 300mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B32" s="1">
-        <v>20</v>
+        <v>105</v>
+      </c>
+      <c r="C32" s="1">
+        <v>808500</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v xml:space="preserve">Enervon C </v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B33" s="1">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="C33" s="1">
+        <v>231000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Esocon  20mg (Esomeprazole)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B34" s="1">
-        <v>197</v>
+        <v>585</v>
+      </c>
+      <c r="C34" s="1">
+        <v>4504500</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Esotrax (Esomeprazole 20mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B35" s="1">
-        <v>670</v>
+        <v>40</v>
+      </c>
+      <c r="C35" s="1">
+        <v>308000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Europlin (Amitriptyline 25mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B36" s="1">
-        <v>148</v>
+        <v>120</v>
+      </c>
+      <c r="C36" s="1">
+        <v>924000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Febuday (Febuxostat 40mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B37" s="1">
-        <v>421</v>
+        <v>35</v>
+      </c>
+      <c r="C37" s="1">
+        <v>269500</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Febuxotid VK (Febuxostat 40mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B38" s="1">
-        <v>255</v>
+        <v>60</v>
+      </c>
+      <c r="C38" s="1">
+        <v>462000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Flexilor 4 (Lornoxicam 4mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B39" s="1">
-        <v>200</v>
+        <v>30</v>
+      </c>
+      <c r="C39" s="1">
+        <v>231000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Gabena (Olanzapine 10mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B40" s="1">
-        <v>145</v>
+        <v>15</v>
+      </c>
+      <c r="C40" s="1">
+        <v>115500</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Genprid 2 (Glimepiride 2mg)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B41" s="1">
-        <v>340</v>
+        <v>135</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1039500</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Genprid 4 (Glimepiride 4mg)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B42" s="1">
-        <v>1500</v>
+        <v>45</v>
+      </c>
+      <c r="C42" s="1">
+        <v>346500</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Gluphakaps (Metformin 850mg)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B43" s="1">
-        <v>3085</v>
+        <v>150</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1155000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Goldesome (Esomeprazole 40mg)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B44" s="1">
-        <v>1475</v>
+        <v>135</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1039500</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Hemoral (Diosmin, hesperidin)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B45" s="1">
-        <v>90</v>
+        <v>261</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2009700</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Janumet (Sitagliptin 50mg+metformin 850mg)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B46" s="1">
-        <v>380</v>
+        <v>120</v>
+      </c>
+      <c r="C46" s="1">
+        <v>924000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Janumet (Sitagliptin 50mg+metformin1000mg)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B47" s="1">
-        <v>90</v>
+        <v>30</v>
+      </c>
+      <c r="C47" s="1">
+        <v>231000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>KiddieCal (Calcium, vitamin D&amp;K)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B48" s="1">
-        <v>210</v>
+        <v>1341</v>
+      </c>
+      <c r="C48" s="1">
+        <v>10325700</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Lantus Solostar 100IU/ml</v>
+        <v>Baci-subti (Bacillus subtilis)</v>
       </c>
       <c r="B49" s="1">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="C49" s="1">
+        <v>103500</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Larfix (Lornoxicam 8mg)</v>
+        <v>Baci-subti (Bacillus subtilis)</v>
       </c>
       <c r="B50" s="1">
-        <v>1595</v>
+        <v>60</v>
+      </c>
+      <c r="C50" s="1">
+        <v>207000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Levothyrox 100mcg (Levothyroxine)</v>
+        <v>Baci-subti (Bacillus subtilis)</v>
       </c>
       <c r="B51" s="1">
-        <v>120</v>
+        <v>60</v>
+      </c>
+      <c r="C51" s="1">
+        <v>207000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Levothyrox 50mcg (Levothyroxine)</v>
+        <v>Baci-subti (Bacillus subtilis)</v>
       </c>
       <c r="B52" s="1">
-        <v>5</v>
+        <v>375</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1293750</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Lisopress (Lisinopril 5mg)</v>
+        <v>Bonlutin (Glucosamine, chondroitin,fish Oil)</v>
       </c>
       <c r="B53" s="1">
-        <v>910</v>
+        <v>190</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1107700</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Livosil (Silymarin 140mg)</v>
+        <v>Bonlutin (Glucosamine, chondroitin,fish Oil)</v>
       </c>
       <c r="B54" s="1">
-        <v>4640</v>
+        <v>120</v>
+      </c>
+      <c r="C54" s="1">
+        <v>699600</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Lorista (Losartan 50mg)</v>
+        <v>Bonlutin (Glucosamine, chondroitin,fish Oil)</v>
       </c>
       <c r="B55" s="1">
-        <v>1659</v>
+        <v>495</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2885850</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Lucass 200 (Cefpodoxime)</v>
+        <v>Bonlutin (Glucosamine, chondroitin,fish Oil)</v>
       </c>
       <c r="B56" s="1">
-        <v>80</v>
+        <v>105</v>
+      </c>
+      <c r="C56" s="1">
+        <v>612150</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Mecitil (Flunarizine 5.9mg)</v>
+        <v>Bonlutin (Glucosamine, chondroitin,fish Oil)</v>
       </c>
       <c r="B57" s="1">
-        <v>3619</v>
+        <v>180</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1049400</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Medovent (Ambroxol 30mg)</v>
+        <v>Bonlutin (Glucosamine, chondroitin,fish Oil)</v>
       </c>
       <c r="B58" s="1">
-        <v>105</v>
+        <v>136</v>
+      </c>
+      <c r="C58" s="1">
+        <v>792880</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Medrol 16mg (Methylprednisolone)</v>
+        <v>Bonlutin (Glucosamine, chondroitin,fish Oil)</v>
       </c>
       <c r="B59" s="1">
-        <v>127</v>
+        <v>90</v>
+      </c>
+      <c r="C59" s="1">
+        <v>524700</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Metilone-4 (Methylprednisolone 4mg)</v>
+        <v>Bonlutin (Glucosamine, chondroitin,fish Oil)</v>
       </c>
       <c r="B60" s="1">
-        <v>20</v>
+        <v>2271</v>
+      </c>
+      <c r="C60" s="1">
+        <v>13239930</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Mexams (Montelukast 5mg)</v>
+        <v>Bonlutin (Glucosamine, chondroitin,fish Oil)</v>
       </c>
       <c r="B61" s="1">
-        <v>60</v>
+        <v>21</v>
+      </c>
+      <c r="C61" s="1">
+        <v>122430</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+        <v>Bonlutin (Glucosamine, chondroitin,fish Oil)</v>
       </c>
       <c r="B62" s="1">
-        <v>750</v>
+        <v>321</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1871430</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v xml:space="preserve">Mg B6 </v>
+        <v>Bonsartine (Losartan 25mg)</v>
       </c>
       <c r="B63" s="1">
-        <v>120</v>
+        <v>105</v>
+      </c>
+      <c r="C63" s="1">
+        <v>229425</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Montelair (Montelukast 10mg)</v>
+        <v>Bonsartine (Losartan 25mg)</v>
       </c>
       <c r="B64" s="1">
-        <v>10</v>
+        <v>255</v>
+      </c>
+      <c r="C64" s="1">
+        <v>557175</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Mosad MT (Mosapride 5mg)</v>
+        <v>Bonsartine (Losartan 25mg)</v>
       </c>
       <c r="B65" s="1">
-        <v>2421</v>
+        <v>30</v>
+      </c>
+      <c r="C65" s="1">
+        <v>65550</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Natrofen (Cefprozil 500mg)</v>
+        <v>Bonsartine (Losartan 25mg)</v>
       </c>
       <c r="B66" s="1">
-        <v>804</v>
+        <v>15</v>
+      </c>
+      <c r="C66" s="1">
+        <v>32775</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Nazoster (Mometasone furoate monohydrate)</v>
+        <v>Bonsartine (Losartan 25mg)</v>
       </c>
       <c r="B67" s="1">
-        <v>1</v>
+        <v>690</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1507650</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Newbutin (Trimebutine 300mg)</v>
+        <v>Bonsartine (Losartan 25mg)</v>
       </c>
       <c r="B68" s="1">
-        <v>1957</v>
+        <v>30</v>
+      </c>
+      <c r="C68" s="1">
+        <v>65550</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Nolpaza (Pantoprazole 40mg)</v>
+        <v>Bonsartine (Losartan 25mg)</v>
       </c>
       <c r="B69" s="1">
-        <v>1972</v>
+        <v>60</v>
+      </c>
+      <c r="C69" s="1">
+        <v>131100</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Normodipine (Amlodipine 5mg)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B70" s="1">
-        <v>790</v>
+        <v>310</v>
+      </c>
+      <c r="C70" s="1">
+        <v>799800</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Novator (Deferiprone 500mg)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B71" s="1">
-        <v>240</v>
+        <v>140</v>
+      </c>
+      <c r="C71" s="1">
+        <v>361200</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Novofine 31g X 6mm B/100 (Kim)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B72" s="1">
-        <v>140</v>
+        <v>1110</v>
+      </c>
+      <c r="C72" s="1">
+        <v>2863800</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B73" s="1">
-        <v>4323</v>
+        <v>660</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1702800</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Opecerin (Diacerein 50mg)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B74" s="1">
-        <v>930</v>
+        <v>420</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1083600</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v xml:space="preserve">Ospamox (Amox 500mg) </v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B75" s="1">
-        <v>120</v>
+        <v>240</v>
+      </c>
+      <c r="C75" s="1">
+        <v>619200</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Palibone (Alendronic 70mg)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B76" s="1">
-        <v>100</v>
+        <v>188</v>
+      </c>
+      <c r="C76" s="1">
+        <v>485040</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Panadol (Paracetamol)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B77" s="1">
-        <v>509</v>
+        <v>4529</v>
+      </c>
+      <c r="C77" s="1">
+        <v>11684820</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Panangin (Magnesium, potassium)</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B78" s="1">
-        <v>1024</v>
+        <v>870</v>
+      </c>
+      <c r="C78" s="1">
+        <v>2244600</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Pharcotinex</v>
+        <v>Bustidin (Trimetazidin 20mg)</v>
       </c>
       <c r="B79" s="1">
-        <v>1845</v>
+        <v>750</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1935000</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Philiver (Carduus, vitamin..)</v>
+        <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B80" s="1">
-        <v>2660</v>
+        <v>45</v>
+      </c>
+      <c r="C80" s="1">
+        <v>324225</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Prepentin (Pregabalin 75mg)</v>
+        <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B81" s="1">
-        <v>1900</v>
+        <v>45</v>
+      </c>
+      <c r="C81" s="1">
+        <v>324225</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Prohepatis (Ursodesoxycholic 200mg)</v>
+        <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B82" s="1">
-        <v>3320</v>
+        <v>354</v>
+      </c>
+      <c r="C82" s="1">
+        <v>2550570</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Prorid (Finasteride 5 mg)</v>
+        <v>Camoas (Flavoxat 200mg)</v>
       </c>
       <c r="B83" s="1">
-        <v>300</v>
+        <v>90</v>
+      </c>
+      <c r="C83" s="1">
+        <v>648450</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Rabaris (Rabeprazole 20mg)</v>
+        <v>Cardorite (Rosuvastatin 20mg)</v>
       </c>
       <c r="B84" s="1">
-        <v>759</v>
+        <v>15</v>
+      </c>
+      <c r="C84" s="1">
+        <v>214500</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Raxnazole (Itraconazole 100mg)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B85" s="1">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="C85" s="1">
+        <v>297000</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Regurgex (Domperidone 10mg)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B86" s="1">
-        <v>1781</v>
+        <v>30</v>
+      </c>
+      <c r="C86" s="1">
+        <v>297000</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Remem (Ginkgo biloba 120mg)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B87" s="1">
-        <v>3834</v>
+        <v>45</v>
+      </c>
+      <c r="C87" s="1">
+        <v>445500</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Rhaminas (Glucosamine, chondroitin)</v>
+        <v>Cefass (Etoricoxib 90mg)</v>
       </c>
       <c r="B88" s="1">
-        <v>480</v>
+        <v>225</v>
+      </c>
+      <c r="C88" s="1">
+        <v>2227500</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Rutin-Vitamin C (Rutin, vitamin C)</v>
+        <v>Celevox (Levofloxacin 500mg)</v>
       </c>
       <c r="B89" s="1">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="C89" s="1">
+        <v>396000</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>S-cort (Rabamipide 100mg)</v>
+        <v>Celevox (Levofloxacin 500mg)</v>
       </c>
       <c r="B90" s="1">
-        <v>270</v>
+        <v>30</v>
+      </c>
+      <c r="C90" s="1">
+        <v>396000</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Safena (Atorvastatin 10mg)</v>
+        <v>Celevox (Levofloxacin 500mg)</v>
       </c>
       <c r="B91" s="1">
-        <v>1370</v>
+        <v>7</v>
+      </c>
+      <c r="C91" s="1">
+        <v>92400</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Sedanxio (Lạc tiên)</v>
+        <v>Celevox (Levofloxacin 500mg)</v>
       </c>
       <c r="B92" s="1">
-        <v>385</v>
+        <v>14</v>
+      </c>
+      <c r="C92" s="1">
+        <v>184800</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Seovigo (Ginkgo biloba 80mg)</v>
+        <v>Celevox (Levofloxacin 500mg)</v>
       </c>
       <c r="B93" s="1">
         <v>30</v>
+      </c>
+      <c r="C93" s="1">
+        <v>396000</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Strecalis (Eperisone 50mg)</v>
+        <v>Celevox (Levofloxacin 500mg)</v>
       </c>
       <c r="B94" s="1">
-        <v>1478</v>
+        <v>225</v>
+      </c>
+      <c r="C94" s="1">
+        <v>2970000</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Stroseca (Ivermectin 6mg)</v>
+        <v>Cigenol</v>
       </c>
       <c r="B95" s="1">
-        <v>2</v>
+        <v>50</v>
+      </c>
+      <c r="C95" s="1">
+        <v>158000</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Surotadina (Rosuvastatin 10mg)</v>
+        <v>Cigenol</v>
       </c>
       <c r="B96" s="1">
-        <v>1305</v>
+        <v>60</v>
+      </c>
+      <c r="C96" s="1">
+        <v>189600</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Tarfloz (Ferrous fumarate 300mg)</v>
+        <v>Cigenol</v>
       </c>
       <c r="B97" s="1">
-        <v>90</v>
+        <v>60</v>
+      </c>
+      <c r="C97" s="1">
+        <v>189600</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Thyrozol 5mg (Thiamazole)</v>
+        <v>Cigenol</v>
       </c>
       <c r="B98" s="1">
-        <v>654</v>
+        <v>120</v>
+      </c>
+      <c r="C98" s="1">
+        <v>379200</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Toropi (Lercanidipine 10mg)</v>
+        <v>Cigenol</v>
       </c>
       <c r="B99" s="1">
-        <v>1335</v>
+        <v>210</v>
+      </c>
+      <c r="C99" s="1">
+        <v>663600</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Ulcersep (Bismuth subsalicylat 262.5mg)</v>
+        <v>Clatab (Clarithromycin 500mg)</v>
       </c>
       <c r="B100" s="1">
-        <v>776</v>
+        <v>30</v>
+      </c>
+      <c r="C100" s="1">
+        <v>462000</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Ultracet (Tramadol 37.5mg, paracetamol 325mg)</v>
+        <v>Clatab (Clarithromycin 500mg)</v>
       </c>
       <c r="B101" s="1">
-        <v>105</v>
+        <v>14</v>
+      </c>
+      <c r="C101" s="1">
+        <v>215600</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Vocfor (Lornoxicam 4mg)</v>
+        <v>Clatab (Clarithromycin 500mg)</v>
       </c>
       <c r="B102" s="1">
-        <v>523</v>
+        <v>180</v>
+      </c>
+      <c r="C102" s="1">
+        <v>2772000</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Xymex-MPS (Fungal Diastase, Papain, Simethicone)</v>
+        <v>Copedina (Clopidogrel 75mg)</v>
       </c>
       <c r="B103" s="1">
-        <v>486</v>
+        <v>165</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1996500</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Zafular (Bezafibrat 200mg)</v>
+        <v>Copedina (Clopidogrel 75mg)</v>
       </c>
       <c r="B104" s="1">
-        <v>255</v>
+        <v>90</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1089000</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
+        <v>Copedina (Clopidogrel 75mg)</v>
       </c>
       <c r="B105" s="1">
-        <v>1080</v>
+        <v>90</v>
+      </c>
+      <c r="C105" s="1">
+        <v>1089000</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Zedcal-OP (Calcium, zinc, D3)</v>
+        <v>Copedina (Clopidogrel 75mg)</v>
       </c>
       <c r="B106" s="1">
-        <v>1137</v>
+        <v>430</v>
+      </c>
+      <c r="C106" s="1">
+        <v>5203000</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Zentel (albendazole)</v>
+        <v>Corbis (Bisoprolol 5mg)</v>
       </c>
       <c r="B107" s="1">
-        <v>8</v>
+        <v>188</v>
+      </c>
+      <c r="C107" s="1">
+        <v>648600</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Zinnat 500 (Cefuroxime)</v>
+        <v>Corbis (Bisoprolol 5mg)</v>
       </c>
       <c r="B108" s="1">
-        <v>30</v>
+        <v>188</v>
+      </c>
+      <c r="C108" s="1">
+        <v>648600</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Zurma (Mosaprid Citrat 5mg)</v>
+        <v>Corbis (Bisoprolol 5mg)</v>
       </c>
       <c r="B109" s="1">
-        <v>90</v>
+        <v>79</v>
+      </c>
+      <c r="C109" s="1">
+        <v>272550</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
+        <v>Corbis (Bisoprolol 5mg)</v>
+      </c>
+      <c r="B110" s="1">
+        <v>43</v>
+      </c>
+      <c r="C110" s="1">
+        <v>148350</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>Corbis (Bisoprolol 5mg)</v>
+      </c>
+      <c r="B111" s="1">
+        <v>61</v>
+      </c>
+      <c r="C111" s="1">
+        <v>210450</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>Corbis (Bisoprolol 5mg)</v>
+      </c>
+      <c r="B112" s="1">
+        <v>262</v>
+      </c>
+      <c r="C112" s="1">
+        <v>903900</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Corbis (Bisoprolol 5mg)</v>
+      </c>
+      <c r="B113" s="1">
+        <v>181</v>
+      </c>
+      <c r="C113" s="1">
+        <v>624450</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>Corbis (Bisoprolol 5mg)</v>
+      </c>
+      <c r="B114" s="1">
+        <v>75</v>
+      </c>
+      <c r="C114" s="1">
+        <v>258750</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Corbis (Bisoprolol 5mg)</v>
+      </c>
+      <c r="B115" s="1">
+        <v>68</v>
+      </c>
+      <c r="C115" s="1">
+        <v>234600</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Corbis (Bisoprolol 5mg)</v>
+      </c>
+      <c r="B116" s="1">
+        <v>1187</v>
+      </c>
+      <c r="C116" s="1">
+        <v>4095150</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Coversyl 5mg (Perindopril arginine)</v>
+      </c>
+      <c r="B117" s="1">
+        <v>30</v>
+      </c>
+      <c r="C117" s="1">
+        <v>204000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Coversyl 5mg (Perindopril arginine)</v>
+      </c>
+      <c r="B118" s="1">
+        <v>20</v>
+      </c>
+      <c r="C118" s="1">
+        <v>136000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Coversyl 5mg (Perindopril arginine)</v>
+      </c>
+      <c r="B119" s="1">
+        <v>60</v>
+      </c>
+      <c r="C119" s="1">
+        <v>408000</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v xml:space="preserve">Cồn Boric </v>
+      </c>
+      <c r="B120" s="1">
+        <v>1</v>
+      </c>
+      <c r="C120" s="1">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Dagocti (Dutasteride 0.5mg)</v>
+      </c>
+      <c r="B121" s="1">
+        <v>90</v>
+      </c>
+      <c r="C121" s="1">
+        <v>772200</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B122" s="1">
+        <v>130</v>
+      </c>
+      <c r="C122" s="1">
+        <v>850850</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B123" s="1">
+        <v>90</v>
+      </c>
+      <c r="C123" s="1">
+        <v>589050</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B124" s="1">
+        <v>120</v>
+      </c>
+      <c r="C124" s="1">
+        <v>785400</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B125" s="1">
+        <v>60</v>
+      </c>
+      <c r="C125" s="1">
+        <v>392700</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B126" s="1">
+        <v>540</v>
+      </c>
+      <c r="C126" s="1">
+        <v>3534300</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>E-Cox (Etoricoxib 60mg)</v>
+      </c>
+      <c r="B127" s="1">
+        <v>44</v>
+      </c>
+      <c r="C127" s="1">
+        <v>290400</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>E-Cox (Etoricoxib 60mg)</v>
+      </c>
+      <c r="B128" s="1">
+        <v>30</v>
+      </c>
+      <c r="C128" s="1">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>E-Cox (Etoricoxib 60mg)</v>
+      </c>
+      <c r="B129" s="1">
+        <v>30</v>
+      </c>
+      <c r="C129" s="1">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>E-Cox (Etoricoxib 60mg)</v>
+      </c>
+      <c r="B130" s="1">
+        <v>21</v>
+      </c>
+      <c r="C130" s="1">
+        <v>138600</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>E-Cox (Etoricoxib 60mg)</v>
+      </c>
+      <c r="B131" s="1">
+        <v>30</v>
+      </c>
+      <c r="C131" s="1">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>E-Cox (Etoricoxib 60mg)</v>
+      </c>
+      <c r="B132" s="1">
+        <v>30</v>
+      </c>
+      <c r="C132" s="1">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>E-Cox (Etoricoxib 60mg)</v>
+      </c>
+      <c r="B133" s="1">
+        <v>356</v>
+      </c>
+      <c r="C133" s="1">
+        <v>2349600</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>E-Cox (Etoricoxib 60mg)</v>
+      </c>
+      <c r="B134" s="1">
+        <v>59</v>
+      </c>
+      <c r="C134" s="1">
+        <v>389400</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v xml:space="preserve">Enervon C </v>
+      </c>
+      <c r="B135" s="1">
+        <v>23</v>
+      </c>
+      <c r="C135" s="1">
+        <v>62330</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Esocon  20mg (Esomeprazole)</v>
+      </c>
+      <c r="B136" s="1">
+        <v>225</v>
+      </c>
+      <c r="C136" s="1">
+        <v>2351250</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Esotrax (Esomeprazole 20mg)</v>
+      </c>
+      <c r="B137" s="1">
+        <v>120</v>
+      </c>
+      <c r="C137" s="1">
+        <v>1425600</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>Esotrax (Esomeprazole 20mg)</v>
+      </c>
+      <c r="B138" s="1">
+        <v>30</v>
+      </c>
+      <c r="C138" s="1">
+        <v>356400</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Esotrax (Esomeprazole 20mg)</v>
+      </c>
+      <c r="B139" s="1">
+        <v>30</v>
+      </c>
+      <c r="C139" s="1">
+        <v>356400</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>Esotrax (Esomeprazole 20mg)</v>
+      </c>
+      <c r="B140" s="1">
+        <v>90</v>
+      </c>
+      <c r="C140" s="1">
+        <v>1069200</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>Esotrax (Esomeprazole 20mg)</v>
+      </c>
+      <c r="B141" s="1">
+        <v>30</v>
+      </c>
+      <c r="C141" s="1">
+        <v>356400</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>Esotrax (Esomeprazole 20mg)</v>
+      </c>
+      <c r="B142" s="1">
+        <v>734</v>
+      </c>
+      <c r="C142" s="1">
+        <v>8719920</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>Esotrax (Esomeprazole 20mg)</v>
+      </c>
+      <c r="B143" s="1">
+        <v>60</v>
+      </c>
+      <c r="C143" s="1">
+        <v>712800</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>Esotrax (Esomeprazole 20mg)</v>
+      </c>
+      <c r="B144" s="1">
+        <v>150</v>
+      </c>
+      <c r="C144" s="1">
+        <v>1782000</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>Europlin (Amitriptyline 25mg)</v>
+      </c>
+      <c r="B145" s="1">
+        <v>75</v>
+      </c>
+      <c r="C145" s="1">
+        <v>362250</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>Febuday (Febuxostat 40mg)</v>
+      </c>
+      <c r="B146" s="1">
+        <v>45</v>
+      </c>
+      <c r="C146" s="1">
+        <v>717750</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>Febuday (Febuxostat 40mg)</v>
+      </c>
+      <c r="B147" s="1">
+        <v>30</v>
+      </c>
+      <c r="C147" s="1">
+        <v>478500</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>Febuday (Febuxostat 40mg)</v>
+      </c>
+      <c r="B148" s="1">
+        <v>45</v>
+      </c>
+      <c r="C148" s="1">
+        <v>717750</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>Febuday (Febuxostat 40mg)</v>
+      </c>
+      <c r="B149" s="1">
+        <v>45</v>
+      </c>
+      <c r="C149" s="1">
+        <v>717750</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>Febuday (Febuxostat 40mg)</v>
+      </c>
+      <c r="B150" s="1">
+        <v>30</v>
+      </c>
+      <c r="C150" s="1">
+        <v>478500</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>Febuday (Febuxostat 40mg)</v>
+      </c>
+      <c r="B151" s="1">
+        <v>280</v>
+      </c>
+      <c r="C151" s="1">
+        <v>4466000</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>Febuday (Febuxostat 40mg)</v>
+      </c>
+      <c r="B152" s="1">
+        <v>60</v>
+      </c>
+      <c r="C152" s="1">
+        <v>957000</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>Febuxotid VK (Febuxostat 40mg)</v>
+      </c>
+      <c r="B153" s="1">
+        <v>15</v>
+      </c>
+      <c r="C153" s="1">
+        <v>231000</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>Febuxotid VK (Febuxostat 40mg)</v>
+      </c>
+      <c r="B154" s="1">
+        <v>30</v>
+      </c>
+      <c r="C154" s="1">
+        <v>462000</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>Febuxotid VK (Febuxostat 40mg)</v>
+      </c>
+      <c r="B155" s="1">
+        <v>30</v>
+      </c>
+      <c r="C155" s="1">
+        <v>462000</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>Febuxotid VK (Febuxostat 40mg)</v>
+      </c>
+      <c r="B156" s="1">
+        <v>30</v>
+      </c>
+      <c r="C156" s="1">
+        <v>462000</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>Febuxotid VK (Febuxostat 40mg)</v>
+      </c>
+      <c r="B157" s="1">
+        <v>150</v>
+      </c>
+      <c r="C157" s="1">
+        <v>2310000</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>Flexilor 4 (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B158" s="1">
+        <v>30</v>
+      </c>
+      <c r="C158" s="1">
+        <v>297000</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>Flexilor 4 (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B159" s="1">
+        <v>60</v>
+      </c>
+      <c r="C159" s="1">
+        <v>594000</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>Flexilor 4 (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B160" s="1">
+        <v>60</v>
+      </c>
+      <c r="C160" s="1">
+        <v>594000</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>Flexilor 4 (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B161" s="1">
+        <v>20</v>
+      </c>
+      <c r="C161" s="1">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>Flexilor 4 (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B162" s="1">
+        <v>30</v>
+      </c>
+      <c r="C162" s="1">
+        <v>297000</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>Flexilor 4 (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B163" s="1">
+        <v>40</v>
+      </c>
+      <c r="C163" s="1">
+        <v>396000</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>Flexilor 4 (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B164" s="1">
+        <v>60</v>
+      </c>
+      <c r="C164" s="1">
+        <v>594000</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>Flexilor 4 (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B165" s="1">
+        <v>120</v>
+      </c>
+      <c r="C165" s="1">
+        <v>1188000</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>Gabena (Olanzapine 10mg)</v>
+      </c>
+      <c r="B166" s="1">
+        <v>15</v>
+      </c>
+      <c r="C166" s="1">
+        <v>51750</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>Gabena (Olanzapine 10mg)</v>
+      </c>
+      <c r="B167" s="1">
+        <v>77</v>
+      </c>
+      <c r="C167" s="1">
+        <v>265650</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>Gabena (Olanzapine 10mg)</v>
+      </c>
+      <c r="B168" s="1">
+        <v>45</v>
+      </c>
+      <c r="C168" s="1">
+        <v>155250</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>Genprid 2 (Glimepiride 2mg)</v>
+      </c>
+      <c r="B169" s="1">
+        <v>30</v>
+      </c>
+      <c r="C169" s="1">
+        <v>138000</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>Genprid 2 (Glimepiride 2mg)</v>
+      </c>
+      <c r="B170" s="1">
+        <v>105</v>
+      </c>
+      <c r="C170" s="1">
+        <v>483000</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>Genprid 4 (Glimepiride 4mg)</v>
+      </c>
+      <c r="B171" s="1">
+        <v>60</v>
+      </c>
+      <c r="C171" s="1">
+        <v>343200</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>Genprid 4 (Glimepiride 4mg)</v>
+      </c>
+      <c r="B172" s="1">
+        <v>150</v>
+      </c>
+      <c r="C172" s="1">
+        <v>858000</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>Genprid 4 (Glimepiride 4mg)</v>
+      </c>
+      <c r="B173" s="1">
+        <v>165</v>
+      </c>
+      <c r="C173" s="1">
+        <v>943800</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>Genprid 4 (Glimepiride 4mg)</v>
+      </c>
+      <c r="B174" s="1">
+        <v>30</v>
+      </c>
+      <c r="C174" s="1">
+        <v>171600</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>Genprid 4 (Glimepiride 4mg)</v>
+      </c>
+      <c r="B175" s="1">
+        <v>60</v>
+      </c>
+      <c r="C175" s="1">
+        <v>343200</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>Genprid 4 (Glimepiride 4mg)</v>
+      </c>
+      <c r="B176" s="1">
+        <v>390</v>
+      </c>
+      <c r="C176" s="1">
+        <v>2230800</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>Genprid 4 (Glimepiride 4mg)</v>
+      </c>
+      <c r="B177" s="1">
+        <v>60</v>
+      </c>
+      <c r="C177" s="1">
+        <v>343200</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>Genprid 4 (Glimepiride 4mg)</v>
+      </c>
+      <c r="B178" s="1">
+        <v>90</v>
+      </c>
+      <c r="C178" s="1">
+        <v>514800</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>Genprid 4 (Glimepiride 4mg)</v>
+      </c>
+      <c r="B179" s="1">
+        <v>105</v>
+      </c>
+      <c r="C179" s="1">
+        <v>600600</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>Glucophage 500mg (Metformin)</v>
+      </c>
+      <c r="B180" s="1">
+        <v>45</v>
+      </c>
+      <c r="C180" s="1">
+        <v>82575</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B181" s="1">
+        <v>360</v>
+      </c>
+      <c r="C181" s="1">
+        <v>910800</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B182" s="1">
+        <v>75</v>
+      </c>
+      <c r="C182" s="1">
+        <v>189750</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B183" s="1">
+        <v>55</v>
+      </c>
+      <c r="C183" s="1">
+        <v>139150</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B184" s="1">
+        <v>255</v>
+      </c>
+      <c r="C184" s="1">
+        <v>645150</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B185" s="1">
+        <v>45</v>
+      </c>
+      <c r="C185" s="1">
+        <v>113850</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B186" s="1">
+        <v>60</v>
+      </c>
+      <c r="C186" s="1">
+        <v>151800</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B187" s="1">
+        <v>750</v>
+      </c>
+      <c r="C187" s="1">
+        <v>1897500</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B188" s="1">
+        <v>180</v>
+      </c>
+      <c r="C188" s="1">
+        <v>455400</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B189" s="1">
+        <v>140</v>
+      </c>
+      <c r="C189" s="1">
+        <v>354200</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>Goldesome (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B190" s="1">
+        <v>119</v>
+      </c>
+      <c r="C190" s="1">
+        <v>2591820</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>Goldesome (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B191" s="1">
+        <v>88</v>
+      </c>
+      <c r="C191" s="1">
+        <v>1916640</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>Goldesome (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B192" s="1">
+        <v>95</v>
+      </c>
+      <c r="C192" s="1">
+        <v>2069100</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>Goldesome (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B193" s="1">
+        <v>120</v>
+      </c>
+      <c r="C193" s="1">
+        <v>2613600</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>Goldesome (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B194" s="1">
+        <v>110</v>
+      </c>
+      <c r="C194" s="1">
+        <v>2395800</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>Goldesome (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B195" s="1">
+        <v>1106</v>
+      </c>
+      <c r="C195" s="1">
+        <v>24088680</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>Goldesome (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B196" s="1">
+        <v>30</v>
+      </c>
+      <c r="C196" s="1">
+        <v>653400</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>Goldesome (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B197" s="1">
+        <v>30</v>
+      </c>
+      <c r="C197" s="1">
+        <v>653400</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>Hemoral (Diosmin, hesperidin)</v>
+      </c>
+      <c r="B198" s="1">
+        <v>30</v>
+      </c>
+      <c r="C198" s="1">
+        <v>113850</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>Janumet (Sitagliptin 50mg+metformin 850mg)</v>
+      </c>
+      <c r="B199" s="1">
+        <v>60</v>
+      </c>
+      <c r="C199" s="1">
+        <v>702000</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>Janumet (Sitagliptin 50mg+metformin 850mg)</v>
+      </c>
+      <c r="B200" s="1">
+        <v>240</v>
+      </c>
+      <c r="C200" s="1">
+        <v>2808000</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>Janumet (Sitagliptin 50mg+metformin 850mg)</v>
+      </c>
+      <c r="B201" s="1">
+        <v>60</v>
+      </c>
+      <c r="C201" s="1">
+        <v>702000</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>Janumet (Sitagliptin 50mg+metformin1000mg)</v>
+      </c>
+      <c r="B202" s="1">
+        <v>60</v>
+      </c>
+      <c r="C202" s="1">
+        <v>702000</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>KiddieCal (Calcium, vitamin D&amp;K)</v>
+      </c>
+      <c r="B203" s="1">
+        <v>60</v>
+      </c>
+      <c r="C203" s="1">
+        <v>580800</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>KiddieCal (Calcium, vitamin D&amp;K)</v>
+      </c>
+      <c r="B204" s="1">
+        <v>30</v>
+      </c>
+      <c r="C204" s="1">
+        <v>290400</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>KiddieCal (Calcium, vitamin D&amp;K)</v>
+      </c>
+      <c r="B205" s="1">
+        <v>60</v>
+      </c>
+      <c r="C205" s="1">
+        <v>580800</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>KiddieCal (Calcium, vitamin D&amp;K)</v>
+      </c>
+      <c r="B206" s="1">
+        <v>30</v>
+      </c>
+      <c r="C206" s="1">
+        <v>290400</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>Lantus Solostar 100IU/ml</v>
+      </c>
+      <c r="B207" s="1">
+        <v>14</v>
+      </c>
+      <c r="C207" s="1">
+        <v>4144000</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>Lantus Solostar 100IU/ml</v>
+      </c>
+      <c r="B208" s="1">
+        <v>2</v>
+      </c>
+      <c r="C208" s="1">
+        <v>592000</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>Larfix (Lornoxicam 8mg)</v>
+      </c>
+      <c r="B209" s="1">
+        <v>90</v>
+      </c>
+      <c r="C209" s="1">
+        <v>1188000</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>Larfix (Lornoxicam 8mg)</v>
+      </c>
+      <c r="B210" s="1">
+        <v>60</v>
+      </c>
+      <c r="C210" s="1">
+        <v>792000</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>Larfix (Lornoxicam 8mg)</v>
+      </c>
+      <c r="B211" s="1">
+        <v>45</v>
+      </c>
+      <c r="C211" s="1">
+        <v>594000</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>Larfix (Lornoxicam 8mg)</v>
+      </c>
+      <c r="B212" s="1">
+        <v>30</v>
+      </c>
+      <c r="C212" s="1">
+        <v>396000</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>Larfix (Lornoxicam 8mg)</v>
+      </c>
+      <c r="B213" s="1">
+        <v>120</v>
+      </c>
+      <c r="C213" s="1">
+        <v>1584000</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>Larfix (Lornoxicam 8mg)</v>
+      </c>
+      <c r="B214" s="1">
+        <v>667</v>
+      </c>
+      <c r="C214" s="1">
+        <v>8804400</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>Larfix (Lornoxicam 8mg)</v>
+      </c>
+      <c r="B215" s="1">
+        <v>30</v>
+      </c>
+      <c r="C215" s="1">
+        <v>396000</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>Larfix (Lornoxicam 8mg)</v>
+      </c>
+      <c r="B216" s="1">
+        <v>80</v>
+      </c>
+      <c r="C216" s="1">
+        <v>1056000</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>Larfix (Lornoxicam 8mg)</v>
+      </c>
+      <c r="B217" s="1">
+        <v>105</v>
+      </c>
+      <c r="C217" s="1">
+        <v>1386000</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>Levothyrox 100mcg (Levothyroxine)</v>
+      </c>
+      <c r="B218" s="1">
+        <v>59</v>
+      </c>
+      <c r="C218" s="1">
+        <v>99710</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>Levothyrox 50mcg (Levothyroxine)</v>
+      </c>
+      <c r="B219" s="1">
+        <v>45</v>
+      </c>
+      <c r="C219" s="1">
+        <v>51975</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>Lisopress (Lisinopril 5mg)</v>
+      </c>
+      <c r="B220" s="1">
+        <v>45</v>
+      </c>
+      <c r="C220" s="1">
+        <v>191475</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>Lisopress (Lisinopril 5mg)</v>
+      </c>
+      <c r="B221" s="1">
+        <v>22</v>
+      </c>
+      <c r="C221" s="1">
+        <v>93610</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>Lisopress (Lisinopril 5mg)</v>
+      </c>
+      <c r="B222" s="1">
+        <v>25</v>
+      </c>
+      <c r="C222" s="1">
+        <v>106375</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>Lisopress (Lisinopril 5mg)</v>
+      </c>
+      <c r="B223" s="1">
+        <v>15</v>
+      </c>
+      <c r="C223" s="1">
+        <v>63825</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>Lisopress (Lisinopril 5mg)</v>
+      </c>
+      <c r="B224" s="1">
+        <v>15</v>
+      </c>
+      <c r="C224" s="1">
+        <v>63825</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>Lisopress (Lisinopril 5mg)</v>
+      </c>
+      <c r="B225" s="1">
+        <v>301</v>
+      </c>
+      <c r="C225" s="1">
+        <v>1280755</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>Lisopress (Lisinopril 5mg)</v>
+      </c>
+      <c r="B226" s="1">
+        <v>60</v>
+      </c>
+      <c r="C226" s="1">
+        <v>255300</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>Lisopress (Lisinopril 5mg)</v>
+      </c>
+      <c r="B227" s="1">
+        <v>135</v>
+      </c>
+      <c r="C227" s="1">
+        <v>574425</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>Lisopress (Lisinopril 5mg)</v>
+      </c>
+      <c r="B228" s="1">
+        <v>158</v>
+      </c>
+      <c r="C228" s="1">
+        <v>672290</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B229" s="1">
+        <v>60</v>
+      </c>
+      <c r="C229" s="1">
+        <v>448800</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B230" s="1">
+        <v>510</v>
+      </c>
+      <c r="C230" s="1">
+        <v>3814800</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B231" s="1">
+        <v>90</v>
+      </c>
+      <c r="C231" s="1">
+        <v>673200</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B232" s="1">
+        <v>60</v>
+      </c>
+      <c r="C232" s="1">
+        <v>448800</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B233" s="1">
+        <v>1680</v>
+      </c>
+      <c r="C233" s="1">
+        <v>12566400</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B234" s="1">
+        <v>780</v>
+      </c>
+      <c r="C234" s="1">
+        <v>5834400</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B235" s="1">
+        <v>150</v>
+      </c>
+      <c r="C235" s="1">
+        <v>1122000</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>Livosil (Silymarin 140mg)</v>
+      </c>
+      <c r="B236" s="1">
+        <v>120</v>
+      </c>
+      <c r="C236" s="1">
+        <v>897600</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>Lorista (Losartan 50mg)</v>
+      </c>
+      <c r="B237" s="1">
+        <v>90</v>
+      </c>
+      <c r="C237" s="1">
+        <v>496800</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>Lorista (Losartan 50mg)</v>
+      </c>
+      <c r="B238" s="1">
+        <v>90</v>
+      </c>
+      <c r="C238" s="1">
+        <v>496800</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>Lorista (Losartan 50mg)</v>
+      </c>
+      <c r="B239" s="1">
+        <v>60</v>
+      </c>
+      <c r="C239" s="1">
+        <v>331200</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>Lorista (Losartan 50mg)</v>
+      </c>
+      <c r="B240" s="1">
+        <v>30</v>
+      </c>
+      <c r="C240" s="1">
+        <v>165600</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>Lorista (Losartan 50mg)</v>
+      </c>
+      <c r="B241" s="1">
+        <v>390</v>
+      </c>
+      <c r="C241" s="1">
+        <v>2152800</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>Lorista (Losartan 50mg)</v>
+      </c>
+      <c r="B242" s="1">
+        <v>240</v>
+      </c>
+      <c r="C242" s="1">
+        <v>1324800</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>Lorista (Losartan 50mg)</v>
+      </c>
+      <c r="B243" s="1">
+        <v>60</v>
+      </c>
+      <c r="C243" s="1">
+        <v>331200</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B244" s="1">
+        <v>30</v>
+      </c>
+      <c r="C244" s="1">
+        <v>485100</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>Mecitil (Flunarizine 5.9mg)</v>
+      </c>
+      <c r="B245" s="1">
+        <v>404</v>
+      </c>
+      <c r="C245" s="1">
+        <v>1300880</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>Mecitil (Flunarizine 5.9mg)</v>
+      </c>
+      <c r="B246" s="1">
+        <v>194</v>
+      </c>
+      <c r="C246" s="1">
+        <v>624680</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>Mecitil (Flunarizine 5.9mg)</v>
+      </c>
+      <c r="B247" s="1">
+        <v>210</v>
+      </c>
+      <c r="C247" s="1">
+        <v>676200</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>Mecitil (Flunarizine 5.9mg)</v>
+      </c>
+      <c r="B248" s="1">
+        <v>180</v>
+      </c>
+      <c r="C248" s="1">
+        <v>579600</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>Mecitil (Flunarizine 5.9mg)</v>
+      </c>
+      <c r="B249" s="1">
+        <v>150</v>
+      </c>
+      <c r="C249" s="1">
+        <v>483000</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>Mecitil (Flunarizine 5.9mg)</v>
+      </c>
+      <c r="B250" s="1">
+        <v>2174</v>
+      </c>
+      <c r="C250" s="1">
+        <v>7000280</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>Mecitil (Flunarizine 5.9mg)</v>
+      </c>
+      <c r="B251" s="1">
+        <v>254</v>
+      </c>
+      <c r="C251" s="1">
+        <v>817880</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>Mecitil (Flunarizine 5.9mg)</v>
+      </c>
+      <c r="B252" s="1">
+        <v>134</v>
+      </c>
+      <c r="C252" s="1">
+        <v>431480</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>Mecitil (Flunarizine 5.9mg)</v>
+      </c>
+      <c r="B253" s="1">
+        <v>225</v>
+      </c>
+      <c r="C253" s="1">
+        <v>724500</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>Mecitil (Flunarizine 5.9mg)</v>
+      </c>
+      <c r="B254" s="1">
+        <v>30</v>
+      </c>
+      <c r="C254" s="1">
+        <v>96600</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>Medovent (Ambroxol 30mg)</v>
+      </c>
+      <c r="B255" s="1">
+        <v>180</v>
+      </c>
+      <c r="C255" s="1">
+        <v>331200</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>Medrol 16mg (Methylprednisolone)</v>
+      </c>
+      <c r="B256" s="1">
+        <v>45</v>
+      </c>
+      <c r="C256" s="1">
+        <v>202950</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>Medrol 16mg (Methylprednisolone)</v>
+      </c>
+      <c r="B257" s="1">
+        <v>30</v>
+      </c>
+      <c r="C257" s="1">
+        <v>135300</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B258" s="1">
+        <v>30</v>
+      </c>
+      <c r="C258" s="1">
+        <v>379500</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B259" s="1">
+        <v>180</v>
+      </c>
+      <c r="C259" s="1">
+        <v>2277000</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B260" s="1">
+        <v>150</v>
+      </c>
+      <c r="C260" s="1">
+        <v>1897500</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B261" s="1">
+        <v>180</v>
+      </c>
+      <c r="C261" s="1">
+        <v>2277000</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B262" s="1">
+        <v>120</v>
+      </c>
+      <c r="C262" s="1">
+        <v>1518000</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B263" s="1">
+        <v>60</v>
+      </c>
+      <c r="C263" s="1">
+        <v>759000</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v xml:space="preserve">Mg B6 </v>
+      </c>
+      <c r="B264" s="1">
+        <v>90</v>
+      </c>
+      <c r="C264" s="1">
+        <v>190800</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v xml:space="preserve">Mg B6 </v>
+      </c>
+      <c r="B265" s="1">
+        <v>90</v>
+      </c>
+      <c r="C265" s="1">
+        <v>190800</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>Mosad MT (Mosapride 5mg)</v>
+      </c>
+      <c r="B266" s="1">
+        <v>42</v>
+      </c>
+      <c r="C266" s="1">
+        <v>115920</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>Mosad MT (Mosapride 5mg)</v>
+      </c>
+      <c r="B267" s="1">
+        <v>156</v>
+      </c>
+      <c r="C267" s="1">
+        <v>430560</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>Mosad MT (Mosapride 5mg)</v>
+      </c>
+      <c r="B268" s="1">
+        <v>165</v>
+      </c>
+      <c r="C268" s="1">
+        <v>455400</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>Mosad MT (Mosapride 5mg)</v>
+      </c>
+      <c r="B269" s="1">
+        <v>90</v>
+      </c>
+      <c r="C269" s="1">
+        <v>248400</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>Mosad MT (Mosapride 5mg)</v>
+      </c>
+      <c r="B270" s="1">
+        <v>135</v>
+      </c>
+      <c r="C270" s="1">
+        <v>372600</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>Mosad MT (Mosapride 5mg)</v>
+      </c>
+      <c r="B271" s="1">
+        <v>2118</v>
+      </c>
+      <c r="C271" s="1">
+        <v>5845680</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>Mosad MT (Mosapride 5mg)</v>
+      </c>
+      <c r="B272" s="1">
+        <v>180</v>
+      </c>
+      <c r="C272" s="1">
+        <v>496800</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>Mosad MT (Mosapride 5mg)</v>
+      </c>
+      <c r="B273" s="1">
+        <v>180</v>
+      </c>
+      <c r="C273" s="1">
+        <v>496800</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>Mosad MT (Mosapride 5mg)</v>
+      </c>
+      <c r="B274" s="1">
+        <v>45</v>
+      </c>
+      <c r="C274" s="1">
+        <v>124200</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>Natrofen (Cefprozil 500mg)</v>
+      </c>
+      <c r="B275" s="1">
+        <v>30</v>
+      </c>
+      <c r="C275" s="1">
+        <v>1138500</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>Natrofen (Cefprozil 500mg)</v>
+      </c>
+      <c r="B276" s="1">
+        <v>54</v>
+      </c>
+      <c r="C276" s="1">
+        <v>2049300</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>Natrofen (Cefprozil 500mg)</v>
+      </c>
+      <c r="B277" s="1">
+        <v>90</v>
+      </c>
+      <c r="C277" s="1">
+        <v>3415500</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>Natrofen (Cefprozil 500mg)</v>
+      </c>
+      <c r="B278" s="1">
+        <v>35</v>
+      </c>
+      <c r="C278" s="1">
+        <v>1328250</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>Natrofen (Cefprozil 500mg)</v>
+      </c>
+      <c r="B279" s="1">
+        <v>435</v>
+      </c>
+      <c r="C279" s="1">
+        <v>16508250</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>Natrofen (Cefprozil 500mg)</v>
+      </c>
+      <c r="B280" s="1">
+        <v>74</v>
+      </c>
+      <c r="C280" s="1">
+        <v>2808300</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>Natrofen (Cefprozil 500mg)</v>
+      </c>
+      <c r="B281" s="1">
+        <v>64</v>
+      </c>
+      <c r="C281" s="1">
+        <v>2428800</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>Natrofen (Cefprozil 500mg)</v>
+      </c>
+      <c r="B282" s="1">
+        <v>60</v>
+      </c>
+      <c r="C282" s="1">
+        <v>2277000</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>Newbutin (Trimebutine 300mg)</v>
+      </c>
+      <c r="B283" s="1">
+        <v>180</v>
+      </c>
+      <c r="C283" s="1">
+        <v>1207800</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>Newbutin (Trimebutine 300mg)</v>
+      </c>
+      <c r="B284" s="1">
+        <v>258</v>
+      </c>
+      <c r="C284" s="1">
+        <v>1731180</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>Newbutin (Trimebutine 300mg)</v>
+      </c>
+      <c r="B285" s="1">
+        <v>90</v>
+      </c>
+      <c r="C285" s="1">
+        <v>603900</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>Newbutin (Trimebutine 300mg)</v>
+      </c>
+      <c r="B286" s="1">
+        <v>110</v>
+      </c>
+      <c r="C286" s="1">
+        <v>738100</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>Newbutin (Trimebutine 300mg)</v>
+      </c>
+      <c r="B287" s="1">
+        <v>1848</v>
+      </c>
+      <c r="C287" s="1">
+        <v>12400080</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>Newbutin (Trimebutine 300mg)</v>
+      </c>
+      <c r="B288" s="1">
+        <v>120</v>
+      </c>
+      <c r="C288" s="1">
+        <v>805200</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>Newbutin (Trimebutine 300mg)</v>
+      </c>
+      <c r="B289" s="1">
+        <v>150</v>
+      </c>
+      <c r="C289" s="1">
+        <v>1006500</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>Newbutin (Trimebutine 300mg)</v>
+      </c>
+      <c r="B290" s="1">
+        <v>300</v>
+      </c>
+      <c r="C290" s="1">
+        <v>2013000</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>Newbutin (Trimebutine 300mg)</v>
+      </c>
+      <c r="B291" s="1">
+        <v>170</v>
+      </c>
+      <c r="C291" s="1">
+        <v>1140700</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>Nifedipin 20</v>
+      </c>
+      <c r="B292" s="1">
+        <v>1</v>
+      </c>
+      <c r="C292" s="1">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B293" s="1">
+        <v>83</v>
+      </c>
+      <c r="C293" s="1">
+        <v>1049950</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B294" s="1">
+        <v>150</v>
+      </c>
+      <c r="C294" s="1">
+        <v>1897500</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B295" s="1">
+        <v>45</v>
+      </c>
+      <c r="C295" s="1">
+        <v>569250</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B296" s="1">
+        <v>165</v>
+      </c>
+      <c r="C296" s="1">
+        <v>2087250</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B297" s="1">
+        <v>1359</v>
+      </c>
+      <c r="C297" s="1">
+        <v>17191350</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B298" s="1">
+        <v>135</v>
+      </c>
+      <c r="C298" s="1">
+        <v>1707750</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B299" s="1">
+        <v>75</v>
+      </c>
+      <c r="C299" s="1">
+        <v>948750</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B300" s="1">
+        <v>150</v>
+      </c>
+      <c r="C300" s="1">
+        <v>1897500</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B301" s="1">
+        <v>150</v>
+      </c>
+      <c r="C301" s="1">
+        <v>1897500</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B302" s="1">
+        <v>150</v>
+      </c>
+      <c r="C302" s="1">
+        <v>1897500</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B303" s="1">
+        <v>45</v>
+      </c>
+      <c r="C303" s="1">
+        <v>207000</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B304" s="1">
+        <v>30</v>
+      </c>
+      <c r="C304" s="1">
+        <v>138000</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B305" s="1">
+        <v>445</v>
+      </c>
+      <c r="C305" s="1">
+        <v>2047000</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B306" s="1">
+        <v>30</v>
+      </c>
+      <c r="C306" s="1">
+        <v>138000</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B307" s="1">
+        <v>75</v>
+      </c>
+      <c r="C307" s="1">
+        <v>345000</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B308" s="1">
+        <v>60</v>
+      </c>
+      <c r="C308" s="1">
+        <v>276000</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>Novator (Deferiprone 500mg)</v>
+      </c>
+      <c r="B309" s="1">
+        <v>15</v>
+      </c>
+      <c r="C309" s="1">
+        <v>148500</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>Novator (Deferiprone 500mg)</v>
+      </c>
+      <c r="B310" s="1">
+        <v>15</v>
+      </c>
+      <c r="C310" s="1">
+        <v>148500</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>Novator (Deferiprone 500mg)</v>
+      </c>
+      <c r="B311" s="1">
+        <v>30</v>
+      </c>
+      <c r="C311" s="1">
+        <v>297000</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>Novator (Deferiprone 500mg)</v>
+      </c>
+      <c r="B312" s="1">
+        <v>375</v>
+      </c>
+      <c r="C312" s="1">
+        <v>3712500</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>Novator (Deferiprone 500mg)</v>
+      </c>
+      <c r="B313" s="1">
+        <v>30</v>
+      </c>
+      <c r="C313" s="1">
+        <v>297000</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>Novator (Deferiprone 500mg)</v>
+      </c>
+      <c r="B314" s="1">
+        <v>90</v>
+      </c>
+      <c r="C314" s="1">
+        <v>891000</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>Novofine 31g X 6mm B/100 (Kim)</v>
+      </c>
+      <c r="B315" s="1">
+        <v>20</v>
+      </c>
+      <c r="C315" s="1">
+        <v>49400</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+      </c>
+      <c r="B316" s="1">
+        <v>200</v>
+      </c>
+      <c r="C316" s="1">
+        <v>1522000</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+      </c>
+      <c r="B317" s="1">
+        <v>254</v>
+      </c>
+      <c r="C317" s="1">
+        <v>1932940</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+      </c>
+      <c r="B318" s="1">
+        <v>280</v>
+      </c>
+      <c r="C318" s="1">
+        <v>2130800</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+      </c>
+      <c r="B319" s="1">
+        <v>60</v>
+      </c>
+      <c r="C319" s="1">
+        <v>456600</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+      </c>
+      <c r="B320" s="1">
+        <v>165</v>
+      </c>
+      <c r="C320" s="1">
+        <v>1255650</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+      </c>
+      <c r="B321" s="1">
+        <v>3454</v>
+      </c>
+      <c r="C321" s="1">
+        <v>26284940</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+      </c>
+      <c r="B322" s="1">
+        <v>180</v>
+      </c>
+      <c r="C322" s="1">
+        <v>1369800</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+      </c>
+      <c r="B323" s="1">
+        <v>210</v>
+      </c>
+      <c r="C323" s="1">
+        <v>1598100</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+      </c>
+      <c r="B324" s="1">
+        <v>160</v>
+      </c>
+      <c r="C324" s="1">
+        <v>1217600</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+      </c>
+      <c r="B325" s="1">
+        <v>110</v>
+      </c>
+      <c r="C325" s="1">
+        <v>837100</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>Opecerin (Diacerein 50mg)</v>
+      </c>
+      <c r="B326" s="1">
+        <v>60</v>
+      </c>
+      <c r="C326" s="1">
+        <v>504900</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>Opecerin (Diacerein 50mg)</v>
+      </c>
+      <c r="B327" s="1">
+        <v>60</v>
+      </c>
+      <c r="C327" s="1">
+        <v>504900</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v>Opecerin (Diacerein 50mg)</v>
+      </c>
+      <c r="B328" s="1">
+        <v>14</v>
+      </c>
+      <c r="C328" s="1">
+        <v>117810</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v>Opecerin (Diacerein 50mg)</v>
+      </c>
+      <c r="B329" s="1">
+        <v>240</v>
+      </c>
+      <c r="C329" s="1">
+        <v>2019600</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v>Opecerin (Diacerein 50mg)</v>
+      </c>
+      <c r="B330" s="1">
+        <v>1020</v>
+      </c>
+      <c r="C330" s="1">
+        <v>8583300</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v>Opecerin (Diacerein 50mg)</v>
+      </c>
+      <c r="B331" s="1">
+        <v>210</v>
+      </c>
+      <c r="C331" s="1">
+        <v>1767150</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="str">
+        <v>Opecerin (Diacerein 50mg)</v>
+      </c>
+      <c r="B332" s="1">
+        <v>90</v>
+      </c>
+      <c r="C332" s="1">
+        <v>757350</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="str">
+        <v xml:space="preserve">Oresol </v>
+      </c>
+      <c r="B333" s="1">
+        <v>14</v>
+      </c>
+      <c r="C333" s="1">
+        <v>21980</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="str">
+        <v>Osart (Olmesartan 20mg)</v>
+      </c>
+      <c r="B334" s="1">
+        <v>15</v>
+      </c>
+      <c r="C334" s="1">
+        <v>123750</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="str">
+        <v>Osart (Olmesartan 20mg)</v>
+      </c>
+      <c r="B335" s="1">
+        <v>8</v>
+      </c>
+      <c r="C335" s="1">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v>Osart (Olmesartan 20mg)</v>
+      </c>
+      <c r="B336" s="1">
+        <v>15</v>
+      </c>
+      <c r="C336" s="1">
+        <v>123750</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="str">
+        <v>Osart (Olmesartan 20mg)</v>
+      </c>
+      <c r="B337" s="1">
+        <v>30</v>
+      </c>
+      <c r="C337" s="1">
+        <v>247500</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="str">
+        <v>Osart (Olmesartan 20mg)</v>
+      </c>
+      <c r="B338" s="1">
+        <v>45</v>
+      </c>
+      <c r="C338" s="1">
+        <v>371250</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="str">
+        <v>Osart (Olmesartan 20mg)</v>
+      </c>
+      <c r="B339" s="1">
+        <v>114</v>
+      </c>
+      <c r="C339" s="1">
+        <v>940500</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="str">
+        <v>Osart (Olmesartan 20mg)</v>
+      </c>
+      <c r="B340" s="1">
+        <v>60</v>
+      </c>
+      <c r="C340" s="1">
+        <v>495000</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="str">
+        <v>Osart (Olmesartan 20mg)</v>
+      </c>
+      <c r="B341" s="1">
+        <v>15</v>
+      </c>
+      <c r="C341" s="1">
+        <v>123750</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="str">
+        <v>Osart (Olmesartan 20mg)</v>
+      </c>
+      <c r="B342" s="1">
+        <v>45</v>
+      </c>
+      <c r="C342" s="1">
+        <v>371250</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="str">
+        <v>Osart (Olmesartan 20mg)</v>
+      </c>
+      <c r="B343" s="1">
+        <v>75</v>
+      </c>
+      <c r="C343" s="1">
+        <v>618750</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="str">
+        <v xml:space="preserve">Ospamox (Amox 500mg) </v>
+      </c>
+      <c r="B344" s="1">
+        <v>60</v>
+      </c>
+      <c r="C344" s="1">
+        <v>129000</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="str">
+        <v xml:space="preserve">Ospamox (Amox 500mg) </v>
+      </c>
+      <c r="B345" s="1">
+        <v>60</v>
+      </c>
+      <c r="C345" s="1">
+        <v>129000</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="str">
+        <v>Palibone (Alendronic 70mg)</v>
+      </c>
+      <c r="B346" s="1">
+        <v>16</v>
+      </c>
+      <c r="C346" s="1">
+        <v>1320000</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="str">
+        <v>Palibone (Alendronic 70mg)</v>
+      </c>
+      <c r="B347" s="1">
+        <v>4</v>
+      </c>
+      <c r="C347" s="1">
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="str">
+        <v>Palibone (Alendronic 70mg)</v>
+      </c>
+      <c r="B348" s="1">
+        <v>4</v>
+      </c>
+      <c r="C348" s="1">
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="str">
+        <v>Palibone (Alendronic 70mg)</v>
+      </c>
+      <c r="B349" s="1">
+        <v>28</v>
+      </c>
+      <c r="C349" s="1">
+        <v>2310000</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="str">
+        <v>Palibone (Alendronic 70mg)</v>
+      </c>
+      <c r="B350" s="1">
+        <v>4</v>
+      </c>
+      <c r="C350" s="1">
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="str">
+        <v>Panadol (Paracetamol)</v>
+      </c>
+      <c r="B351" s="1">
+        <v>29</v>
+      </c>
+      <c r="C351" s="1">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="str">
+        <v>Panadol (Paracetamol)</v>
+      </c>
+      <c r="B352" s="1">
+        <v>14</v>
+      </c>
+      <c r="C352" s="1">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="str">
+        <v>Panadol (Paracetamol)</v>
+      </c>
+      <c r="B353" s="1">
+        <v>30</v>
+      </c>
+      <c r="C353" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="str">
+        <v>Panadol (Paracetamol)</v>
+      </c>
+      <c r="B354" s="1">
+        <v>35</v>
+      </c>
+      <c r="C354" s="1">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="str">
+        <v>Panadol (Paracetamol)</v>
+      </c>
+      <c r="B355" s="1">
+        <v>888</v>
+      </c>
+      <c r="C355" s="1">
+        <v>888000</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="str">
+        <v>Panadol (Paracetamol)</v>
+      </c>
+      <c r="B356" s="1">
+        <v>45</v>
+      </c>
+      <c r="C356" s="1">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="str">
+        <v>Panadol (Paracetamol)</v>
+      </c>
+      <c r="B357" s="1">
+        <v>15</v>
+      </c>
+      <c r="C357" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="str">
+        <v>Panadol (Paracetamol)</v>
+      </c>
+      <c r="B358" s="1">
+        <v>80</v>
+      </c>
+      <c r="C358" s="1">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="str">
+        <v>Panangin (Magnesium, potassium)</v>
+      </c>
+      <c r="B359" s="1">
+        <v>7</v>
+      </c>
+      <c r="C359" s="1">
+        <v>14455</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="str">
+        <v>Panangin (Magnesium, potassium)</v>
+      </c>
+      <c r="B360" s="1">
+        <v>10</v>
+      </c>
+      <c r="C360" s="1">
+        <v>20650</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="str">
+        <v>Panangin (Magnesium, potassium)</v>
+      </c>
+      <c r="B361" s="1">
+        <v>15</v>
+      </c>
+      <c r="C361" s="1">
+        <v>30975</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="str">
+        <v>Panangin (Magnesium, potassium)</v>
+      </c>
+      <c r="B362" s="1">
+        <v>487</v>
+      </c>
+      <c r="C362" s="1">
+        <v>1005655</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="str">
+        <v>Panangin (Magnesium, potassium)</v>
+      </c>
+      <c r="B363" s="1">
+        <v>45</v>
+      </c>
+      <c r="C363" s="1">
+        <v>92925</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="str">
+        <v>Panangin (Magnesium, potassium)</v>
+      </c>
+      <c r="B364" s="1">
+        <v>75</v>
+      </c>
+      <c r="C364" s="1">
+        <v>154875</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="str">
+        <v>Panangin (Magnesium, potassium)</v>
+      </c>
+      <c r="B365" s="1">
+        <v>5</v>
+      </c>
+      <c r="C365" s="1">
+        <v>10325</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="str">
+        <v>Pharcotinex</v>
+      </c>
+      <c r="B366" s="1">
+        <v>135</v>
+      </c>
+      <c r="C366" s="1">
+        <v>558900</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="str">
+        <v>Pharcotinex</v>
+      </c>
+      <c r="B367" s="1">
+        <v>90</v>
+      </c>
+      <c r="C367" s="1">
+        <v>372600</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="str">
+        <v>Pharcotinex</v>
+      </c>
+      <c r="B368" s="1">
+        <v>45</v>
+      </c>
+      <c r="C368" s="1">
+        <v>186300</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="str">
+        <v>Pharcotinex</v>
+      </c>
+      <c r="B369" s="1">
+        <v>1080</v>
+      </c>
+      <c r="C369" s="1">
+        <v>4471200</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="str">
+        <v>Pharcotinex</v>
+      </c>
+      <c r="B370" s="1">
+        <v>21</v>
+      </c>
+      <c r="C370" s="1">
+        <v>86940</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="str">
+        <v>Pharcotinex</v>
+      </c>
+      <c r="B371" s="1">
+        <v>45</v>
+      </c>
+      <c r="C371" s="1">
+        <v>186300</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="str">
+        <v>Pharcotinex</v>
+      </c>
+      <c r="B372" s="1">
+        <v>21</v>
+      </c>
+      <c r="C372" s="1">
+        <v>86940</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="str">
+        <v>Pharcotinex</v>
+      </c>
+      <c r="B373" s="1">
+        <v>270</v>
+      </c>
+      <c r="C373" s="1">
+        <v>1117800</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B374" s="1">
+        <v>30</v>
+      </c>
+      <c r="C374" s="1">
+        <v>120750</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B375" s="1">
+        <v>390</v>
+      </c>
+      <c r="C375" s="1">
+        <v>1569750</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B376" s="1">
+        <v>90</v>
+      </c>
+      <c r="C376" s="1">
+        <v>362250</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B377" s="1">
+        <v>240</v>
+      </c>
+      <c r="C377" s="1">
+        <v>966000</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B378" s="1">
+        <v>60</v>
+      </c>
+      <c r="C378" s="1">
+        <v>241500</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B379" s="1">
+        <v>2006</v>
+      </c>
+      <c r="C379" s="1">
+        <v>8074150</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B380" s="1">
+        <v>370</v>
+      </c>
+      <c r="C380" s="1">
+        <v>1489250</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B381" s="1">
+        <v>120</v>
+      </c>
+      <c r="C381" s="1">
+        <v>483000</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="str">
+        <v>Prepentin (Pregabalin 75mg)</v>
+      </c>
+      <c r="B382" s="1">
+        <v>14</v>
+      </c>
+      <c r="C382" s="1">
+        <v>207900</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="str">
+        <v>Prepentin (Pregabalin 75mg)</v>
+      </c>
+      <c r="B383" s="1">
+        <v>105</v>
+      </c>
+      <c r="C383" s="1">
+        <v>1559250</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="str">
+        <v>Prepentin (Pregabalin 75mg)</v>
+      </c>
+      <c r="B384" s="1">
+        <v>130</v>
+      </c>
+      <c r="C384" s="1">
+        <v>1930500</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="str">
+        <v>Prepentin (Pregabalin 75mg)</v>
+      </c>
+      <c r="B385" s="1">
+        <v>50</v>
+      </c>
+      <c r="C385" s="1">
+        <v>742500</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="str">
+        <v>Prepentin (Pregabalin 75mg)</v>
+      </c>
+      <c r="B386" s="1">
+        <v>135</v>
+      </c>
+      <c r="C386" s="1">
+        <v>2004750</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="str">
+        <v>Prepentin (Pregabalin 75mg)</v>
+      </c>
+      <c r="B387" s="1">
+        <v>1042</v>
+      </c>
+      <c r="C387" s="1">
+        <v>15473700</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="str">
+        <v>Prepentin (Pregabalin 75mg)</v>
+      </c>
+      <c r="B388" s="1">
+        <v>52</v>
+      </c>
+      <c r="C388" s="1">
+        <v>772200</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="str">
+        <v>Prepentin (Pregabalin 75mg)</v>
+      </c>
+      <c r="B389" s="1">
+        <v>90</v>
+      </c>
+      <c r="C389" s="1">
+        <v>1336500</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="str">
+        <v>Prepentin (Pregabalin 75mg)</v>
+      </c>
+      <c r="B390" s="1">
+        <v>142</v>
+      </c>
+      <c r="C390" s="1">
+        <v>2108700</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="str">
+        <v>Prepentin (Pregabalin 75mg)</v>
+      </c>
+      <c r="B391" s="1">
+        <v>30</v>
+      </c>
+      <c r="C391" s="1">
+        <v>445500</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="str">
+        <v>Prohepatis (Ursodesoxycholic 200mg)</v>
+      </c>
+      <c r="B392" s="1">
+        <v>120</v>
+      </c>
+      <c r="C392" s="1">
+        <v>1056000</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="str">
+        <v>Prohepatis (Ursodesoxycholic 200mg)</v>
+      </c>
+      <c r="B393" s="1">
+        <v>60</v>
+      </c>
+      <c r="C393" s="1">
+        <v>528000</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="str">
+        <v>Prohepatis (Ursodesoxycholic 200mg)</v>
+      </c>
+      <c r="B394" s="1">
+        <v>60</v>
+      </c>
+      <c r="C394" s="1">
+        <v>528000</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="str">
+        <v>Prohepatis (Ursodesoxycholic 200mg)</v>
+      </c>
+      <c r="B395" s="1">
+        <v>120</v>
+      </c>
+      <c r="C395" s="1">
+        <v>1056000</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="str">
+        <v>Prohepatis (Ursodesoxycholic 200mg)</v>
+      </c>
+      <c r="B396" s="1">
+        <v>60</v>
+      </c>
+      <c r="C396" s="1">
+        <v>528000</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="str">
+        <v>Prohepatis (Ursodesoxycholic 200mg)</v>
+      </c>
+      <c r="B397" s="1">
+        <v>1530</v>
+      </c>
+      <c r="C397" s="1">
+        <v>13464000</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="str">
+        <v>Prohepatis (Ursodesoxycholic 200mg)</v>
+      </c>
+      <c r="B398" s="1">
+        <v>420</v>
+      </c>
+      <c r="C398" s="1">
+        <v>3696000</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="str">
+        <v>Prohepatis (Ursodesoxycholic 200mg)</v>
+      </c>
+      <c r="B399" s="1">
+        <v>60</v>
+      </c>
+      <c r="C399" s="1">
+        <v>528000</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="str">
+        <v>Prohepatis (Ursodesoxycholic 200mg)</v>
+      </c>
+      <c r="B400" s="1">
+        <v>240</v>
+      </c>
+      <c r="C400" s="1">
+        <v>2112000</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="str">
+        <v>Prorid (Finasteride 5 mg)</v>
+      </c>
+      <c r="B401" s="1">
+        <v>45</v>
+      </c>
+      <c r="C401" s="1">
+        <v>816750</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="str">
+        <v>Prorid (Finasteride 5 mg)</v>
+      </c>
+      <c r="B402" s="1">
+        <v>60</v>
+      </c>
+      <c r="C402" s="1">
+        <v>1089000</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="str">
+        <v>Rabaris (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B403" s="1">
+        <v>60</v>
+      </c>
+      <c r="C403" s="1">
+        <v>429000</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="str">
+        <v>Rabaris (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B404" s="1">
+        <v>44</v>
+      </c>
+      <c r="C404" s="1">
+        <v>314600</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="str">
+        <v>Rabaris (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B405" s="1">
+        <v>30</v>
+      </c>
+      <c r="C405" s="1">
+        <v>214500</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="str">
+        <v>Rabaris (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B406" s="1">
+        <v>394</v>
+      </c>
+      <c r="C406" s="1">
+        <v>2817100</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="str">
+        <v>Rabaris (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B407" s="1">
+        <v>14</v>
+      </c>
+      <c r="C407" s="1">
+        <v>100100</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="str">
+        <v>Rabaris (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B408" s="1">
+        <v>30</v>
+      </c>
+      <c r="C408" s="1">
+        <v>214500</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="str">
+        <v>Rabaris (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B409" s="1">
+        <v>44</v>
+      </c>
+      <c r="C409" s="1">
+        <v>314600</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="str">
+        <v>Rabaris (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B410" s="1">
+        <v>30</v>
+      </c>
+      <c r="C410" s="1">
+        <v>214500</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="str">
+        <v>Raxnazole (Itraconazole 100mg)</v>
+      </c>
+      <c r="B411" s="1">
+        <v>60</v>
+      </c>
+      <c r="C411" s="1">
+        <v>1056000</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="str">
+        <v>Raxnazole (Itraconazole 100mg)</v>
+      </c>
+      <c r="B412" s="1">
+        <v>67</v>
+      </c>
+      <c r="C412" s="1">
+        <v>1179200</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="str">
+        <v>Regurgex (Domperidone 10mg)</v>
+      </c>
+      <c r="B413" s="1">
+        <v>42</v>
+      </c>
+      <c r="C413" s="1">
+        <v>50610</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="str">
+        <v>Regurgex (Domperidone 10mg)</v>
+      </c>
+      <c r="B414" s="1">
+        <v>66</v>
+      </c>
+      <c r="C414" s="1">
+        <v>79530</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="str">
+        <v>Regurgex (Domperidone 10mg)</v>
+      </c>
+      <c r="B415" s="1">
+        <v>135</v>
+      </c>
+      <c r="C415" s="1">
+        <v>162675</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="str">
+        <v>Regurgex (Domperidone 10mg)</v>
+      </c>
+      <c r="B416" s="1">
+        <v>45</v>
+      </c>
+      <c r="C416" s="1">
+        <v>54225</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="str">
+        <v>Regurgex (Domperidone 10mg)</v>
+      </c>
+      <c r="B417" s="1">
+        <v>1221</v>
+      </c>
+      <c r="C417" s="1">
+        <v>1471305</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="str">
+        <v>Regurgex (Domperidone 10mg)</v>
+      </c>
+      <c r="B418" s="1">
+        <v>180</v>
+      </c>
+      <c r="C418" s="1">
+        <v>216900</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B419" s="1">
+        <v>60</v>
+      </c>
+      <c r="C419" s="1">
+        <v>554400</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B420" s="1">
+        <v>224</v>
+      </c>
+      <c r="C420" s="1">
+        <v>2069760</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B421" s="1">
+        <v>30</v>
+      </c>
+      <c r="C421" s="1">
+        <v>277200</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B422" s="1">
+        <v>60</v>
+      </c>
+      <c r="C422" s="1">
+        <v>554400</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B423" s="1">
+        <v>1425</v>
+      </c>
+      <c r="C423" s="1">
+        <v>13167000</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B424" s="1">
+        <v>300</v>
+      </c>
+      <c r="C424" s="1">
+        <v>2772000</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B425" s="1">
+        <v>180</v>
+      </c>
+      <c r="C425" s="1">
+        <v>1663200</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B426" s="1">
+        <v>150</v>
+      </c>
+      <c r="C426" s="1">
+        <v>1386000</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B427" s="1">
+        <v>120</v>
+      </c>
+      <c r="C427" s="1">
+        <v>1108800</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="str">
+        <v>Remem (Ginkgo biloba 120mg)</v>
+      </c>
+      <c r="B428" s="1">
+        <v>30</v>
+      </c>
+      <c r="C428" s="1">
+        <v>277200</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="str">
+        <v>Rhaminas (Glucosamine, chondroitin)</v>
+      </c>
+      <c r="B429" s="1">
+        <v>60</v>
+      </c>
+      <c r="C429" s="1">
+        <v>303600</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="str">
+        <v>Rhaminas (Glucosamine, chondroitin)</v>
+      </c>
+      <c r="B430" s="1">
+        <v>14</v>
+      </c>
+      <c r="C430" s="1">
+        <v>70840</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="str">
+        <v>Rhaminas (Glucosamine, chondroitin)</v>
+      </c>
+      <c r="B431" s="1">
+        <v>60</v>
+      </c>
+      <c r="C431" s="1">
+        <v>303600</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="str">
+        <v>Rhaminas (Glucosamine, chondroitin)</v>
+      </c>
+      <c r="B432" s="1">
+        <v>90</v>
+      </c>
+      <c r="C432" s="1">
+        <v>455400</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="str">
+        <v>Rhaminas (Glucosamine, chondroitin)</v>
+      </c>
+      <c r="B433" s="1">
+        <v>720</v>
+      </c>
+      <c r="C433" s="1">
+        <v>3643200</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="str">
+        <v>Rhaminas (Glucosamine, chondroitin)</v>
+      </c>
+      <c r="B434" s="1">
+        <v>30</v>
+      </c>
+      <c r="C434" s="1">
+        <v>151800</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="str">
+        <v>Rhaminas (Glucosamine, chondroitin)</v>
+      </c>
+      <c r="B435" s="1">
+        <v>240</v>
+      </c>
+      <c r="C435" s="1">
+        <v>1214400</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="str">
+        <v>Rosutrox (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B436" s="1">
+        <v>15</v>
+      </c>
+      <c r="C436" s="1">
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="str">
+        <v>Rutin-Vitamin C (Rutin, vitamin C)</v>
+      </c>
+      <c r="B437" s="1">
+        <v>120</v>
+      </c>
+      <c r="C437" s="1">
+        <v>30480</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="str">
+        <v>S-cort (Rabamipide 100mg)</v>
+      </c>
+      <c r="B438" s="1">
+        <v>60</v>
+      </c>
+      <c r="C438" s="1">
+        <v>276000</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="str">
+        <v>S-cort (Rabamipide 100mg)</v>
+      </c>
+      <c r="B439" s="1">
+        <v>60</v>
+      </c>
+      <c r="C439" s="1">
+        <v>276000</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="str">
+        <v>S-cort (Rabamipide 100mg)</v>
+      </c>
+      <c r="B440" s="1">
+        <v>120</v>
+      </c>
+      <c r="C440" s="1">
+        <v>552000</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="str">
+        <v>S-cort (Rabamipide 100mg)</v>
+      </c>
+      <c r="B441" s="1">
+        <v>60</v>
+      </c>
+      <c r="C441" s="1">
+        <v>276000</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="str">
+        <v>S-cort (Rabamipide 100mg)</v>
+      </c>
+      <c r="B442" s="1">
+        <v>90</v>
+      </c>
+      <c r="C442" s="1">
+        <v>414000</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="str">
+        <v>S-cort (Rabamipide 100mg)</v>
+      </c>
+      <c r="B443" s="1">
+        <v>180</v>
+      </c>
+      <c r="C443" s="1">
+        <v>828000</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="str">
+        <v>S-cort (Rabamipide 100mg)</v>
+      </c>
+      <c r="B444" s="1">
+        <v>90</v>
+      </c>
+      <c r="C444" s="1">
+        <v>414000</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="str">
+        <v>Safena (Atorvastatin 10mg)</v>
+      </c>
+      <c r="B445" s="1">
+        <v>90</v>
+      </c>
+      <c r="C445" s="1">
+        <v>356850</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="str">
+        <v>Safena (Atorvastatin 10mg)</v>
+      </c>
+      <c r="B446" s="1">
+        <v>430</v>
+      </c>
+      <c r="C446" s="1">
+        <v>1704950</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="str">
+        <v>Safena (Atorvastatin 10mg)</v>
+      </c>
+      <c r="B447" s="1">
+        <v>165</v>
+      </c>
+      <c r="C447" s="1">
+        <v>654225</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="str">
+        <v>Safena (Atorvastatin 10mg)</v>
+      </c>
+      <c r="B448" s="1">
+        <v>90</v>
+      </c>
+      <c r="C448" s="1">
+        <v>356850</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="str">
+        <v>Safena (Atorvastatin 10mg)</v>
+      </c>
+      <c r="B449" s="1">
+        <v>60</v>
+      </c>
+      <c r="C449" s="1">
+        <v>237900</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="str">
+        <v>Sedanxio (Lạc tiên)</v>
+      </c>
+      <c r="B450" s="1">
+        <v>30</v>
+      </c>
+      <c r="C450" s="1">
+        <v>280500</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="str">
+        <v>Sedanxio (Lạc tiên)</v>
+      </c>
+      <c r="B451" s="1">
+        <v>59</v>
+      </c>
+      <c r="C451" s="1">
+        <v>551650</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="str">
+        <v>Sedanxio (Lạc tiên)</v>
+      </c>
+      <c r="B452" s="1">
+        <v>150</v>
+      </c>
+      <c r="C452" s="1">
+        <v>1402500</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="str">
+        <v>Sedanxio (Lạc tiên)</v>
+      </c>
+      <c r="B453" s="1">
+        <v>30</v>
+      </c>
+      <c r="C453" s="1">
+        <v>280500</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="str">
+        <v>Sedanxio (Lạc tiên)</v>
+      </c>
+      <c r="B454" s="1">
+        <v>15</v>
+      </c>
+      <c r="C454" s="1">
+        <v>140250</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="str">
+        <v>Smecta (Diosmectite 3g)</v>
+      </c>
+      <c r="B455" s="1">
+        <v>14</v>
+      </c>
+      <c r="C455" s="1">
+        <v>60200</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="str">
+        <v>Strecalis (Eperisone 50mg)</v>
+      </c>
+      <c r="B456" s="1">
+        <v>120</v>
+      </c>
+      <c r="C456" s="1">
+        <v>372600</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="str">
+        <v>Strecalis (Eperisone 50mg)</v>
+      </c>
+      <c r="B457" s="1">
+        <v>45</v>
+      </c>
+      <c r="C457" s="1">
+        <v>139725</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="str">
+        <v>Strecalis (Eperisone 50mg)</v>
+      </c>
+      <c r="B458" s="1">
+        <v>180</v>
+      </c>
+      <c r="C458" s="1">
+        <v>558900</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="str">
+        <v>Strecalis (Eperisone 50mg)</v>
+      </c>
+      <c r="B459" s="1">
+        <v>105</v>
+      </c>
+      <c r="C459" s="1">
+        <v>326025</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="str">
+        <v>Strecalis (Eperisone 50mg)</v>
+      </c>
+      <c r="B460" s="1">
+        <v>780</v>
+      </c>
+      <c r="C460" s="1">
+        <v>2421900</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="str">
+        <v>Strecalis (Eperisone 50mg)</v>
+      </c>
+      <c r="B461" s="1">
+        <v>51</v>
+      </c>
+      <c r="C461" s="1">
+        <v>158355</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="str">
+        <v>Strecalis (Eperisone 50mg)</v>
+      </c>
+      <c r="B462" s="1">
+        <v>10</v>
+      </c>
+      <c r="C462" s="1">
+        <v>31050</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="str">
+        <v>Strecalis (Eperisone 50mg)</v>
+      </c>
+      <c r="B463" s="1">
+        <v>81</v>
+      </c>
+      <c r="C463" s="1">
+        <v>251505</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B464" s="1">
+        <v>67</v>
+      </c>
+      <c r="C464" s="1">
+        <v>729630</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B465" s="1">
+        <v>30</v>
+      </c>
+      <c r="C465" s="1">
+        <v>326700</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B466" s="1">
+        <v>195</v>
+      </c>
+      <c r="C466" s="1">
+        <v>2123550</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B467" s="1">
+        <v>180</v>
+      </c>
+      <c r="C467" s="1">
+        <v>1960200</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B468" s="1">
+        <v>75</v>
+      </c>
+      <c r="C468" s="1">
+        <v>816750</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B469" s="1">
+        <v>945</v>
+      </c>
+      <c r="C469" s="1">
+        <v>10291050</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B470" s="1">
+        <v>120</v>
+      </c>
+      <c r="C470" s="1">
+        <v>1306800</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B471" s="1">
+        <v>120</v>
+      </c>
+      <c r="C471" s="1">
+        <v>1306800</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B472" s="1">
+        <v>135</v>
+      </c>
+      <c r="C472" s="1">
+        <v>1470150</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="str">
+        <v>Surotadina (Rosuvastatin 10mg)</v>
+      </c>
+      <c r="B473" s="1">
+        <v>45</v>
+      </c>
+      <c r="C473" s="1">
+        <v>490050</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="str">
+        <v>Tarfloz (Ferrous fumarate 300mg)</v>
+      </c>
+      <c r="B474" s="1">
+        <v>60</v>
+      </c>
+      <c r="C474" s="1">
+        <v>248400</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="str">
+        <v>Tarfloz (Ferrous fumarate 300mg)</v>
+      </c>
+      <c r="B475" s="1">
+        <v>30</v>
+      </c>
+      <c r="C475" s="1">
+        <v>124200</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="str">
+        <v>Thyrozol 5mg (Thiamazole)</v>
+      </c>
+      <c r="B476" s="1">
+        <v>285</v>
+      </c>
+      <c r="C476" s="1">
+        <v>458850</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="str">
+        <v>Thyrozol 5mg (Thiamazole)</v>
+      </c>
+      <c r="B477" s="1">
+        <v>450</v>
+      </c>
+      <c r="C477" s="1">
+        <v>724500</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B478" s="1">
+        <v>120</v>
+      </c>
+      <c r="C478" s="1">
+        <v>1029600</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B479" s="1">
+        <v>30</v>
+      </c>
+      <c r="C479" s="1">
+        <v>257400</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B480" s="1">
+        <v>60</v>
+      </c>
+      <c r="C480" s="1">
+        <v>514800</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B481" s="1">
+        <v>30</v>
+      </c>
+      <c r="C481" s="1">
+        <v>257400</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B482" s="1">
+        <v>480</v>
+      </c>
+      <c r="C482" s="1">
+        <v>4118400</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B483" s="1">
+        <v>60</v>
+      </c>
+      <c r="C483" s="1">
+        <v>514800</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B484" s="1">
+        <v>60</v>
+      </c>
+      <c r="C484" s="1">
+        <v>514800</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B485" s="1">
+        <v>30</v>
+      </c>
+      <c r="C485" s="1">
+        <v>257400</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B486" s="1">
+        <v>60</v>
+      </c>
+      <c r="C486" s="1">
+        <v>514800</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="str">
+        <v>Tragutan (Eucalpyptol, tinh dầu gừng, tinh dầu tần, menthol)</v>
+      </c>
+      <c r="B487" s="1">
+        <v>12</v>
+      </c>
+      <c r="C487" s="1">
+        <v>7080</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="str">
+        <v>Troxipe kit (Clarithromycin, esomeprazole, tinidazol)</v>
+      </c>
+      <c r="B488" s="1">
+        <v>15</v>
+      </c>
+      <c r="C488" s="1">
+        <v>1237500</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="str">
+        <v>Troxipe kit (Clarithromycin, esomeprazole, tinidazol)</v>
+      </c>
+      <c r="B489" s="1">
+        <v>10</v>
+      </c>
+      <c r="C489" s="1">
+        <v>825000</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="str">
+        <v>Troxipe kit (Clarithromycin, esomeprazole, tinidazol)</v>
+      </c>
+      <c r="B490" s="1">
+        <v>75</v>
+      </c>
+      <c r="C490" s="1">
+        <v>6187500</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="str">
+        <v>Troxipe kit (Clarithromycin, esomeprazole, tinidazol)</v>
+      </c>
+      <c r="B491" s="1">
+        <v>15</v>
+      </c>
+      <c r="C491" s="1">
+        <v>1237500</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="str">
+        <v>Troxipe kit (Clarithromycin, esomeprazole, tinidazol)</v>
+      </c>
+      <c r="B492" s="1">
+        <v>20</v>
+      </c>
+      <c r="C492" s="1">
+        <v>1650000</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="str">
+        <v>Troxipe kit (Clarithromycin, esomeprazole, tinidazol)</v>
+      </c>
+      <c r="B493" s="1">
+        <v>15</v>
+      </c>
+      <c r="C493" s="1">
+        <v>1237500</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="str">
+        <v>Ulcersep (Bismuth subsalicylat 262.5mg)</v>
+      </c>
+      <c r="B494" s="1">
+        <v>28</v>
+      </c>
+      <c r="C494" s="1">
+        <v>127120</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="str">
+        <v>Ulcersep (Bismuth subsalicylat 262.5mg)</v>
+      </c>
+      <c r="B495" s="1">
+        <v>60</v>
+      </c>
+      <c r="C495" s="1">
+        <v>272400</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="str">
+        <v>Ulcersep (Bismuth subsalicylat 262.5mg)</v>
+      </c>
+      <c r="B496" s="1">
+        <v>60</v>
+      </c>
+      <c r="C496" s="1">
+        <v>272400</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="str">
+        <v>Ulcersep (Bismuth subsalicylat 262.5mg)</v>
+      </c>
+      <c r="B497" s="1">
+        <v>480</v>
+      </c>
+      <c r="C497" s="1">
+        <v>2179200</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="str">
+        <v>Ulcersep (Bismuth subsalicylat 262.5mg)</v>
+      </c>
+      <c r="B498" s="1">
+        <v>60</v>
+      </c>
+      <c r="C498" s="1">
+        <v>272400</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="str">
+        <v>Ulcersep (Bismuth subsalicylat 262.5mg)</v>
+      </c>
+      <c r="B499" s="1">
+        <v>120</v>
+      </c>
+      <c r="C499" s="1">
+        <v>544800</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="str">
+        <v>Vinsalamin (Mesalamin 400mg)</v>
+      </c>
+      <c r="B500" s="1">
+        <v>40</v>
+      </c>
+      <c r="C500" s="1">
+        <v>352000</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="str">
+        <v>Vocfor (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B501" s="1">
+        <v>30</v>
+      </c>
+      <c r="C501" s="1">
+        <v>292380</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="str">
+        <v>Vocfor (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B502" s="1">
+        <v>90</v>
+      </c>
+      <c r="C502" s="1">
+        <v>877140</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="str">
+        <v>Vocfor (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B503" s="1">
+        <v>110</v>
+      </c>
+      <c r="C503" s="1">
+        <v>1072060</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="str">
+        <v>Vocfor (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B504" s="1">
+        <v>558</v>
+      </c>
+      <c r="C504" s="1">
+        <v>5438268</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="str">
+        <v>Vocfor (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B505" s="1">
+        <v>30</v>
+      </c>
+      <c r="C505" s="1">
+        <v>292380</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="str">
+        <v>Vocfor (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B506" s="1">
+        <v>90</v>
+      </c>
+      <c r="C506" s="1">
+        <v>877140</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="str">
+        <v>Vocfor (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B507" s="1">
+        <v>14</v>
+      </c>
+      <c r="C507" s="1">
+        <v>136444</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="str">
+        <v>Xymex-MPS (Fungal Diastase, Papain, Simethicone)</v>
+      </c>
+      <c r="B508" s="1">
+        <v>561</v>
+      </c>
+      <c r="C508" s="1">
+        <v>2709630</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="str">
+        <v>Xymex-MPS (Fungal Diastase, Papain, Simethicone)</v>
+      </c>
+      <c r="B509" s="1">
+        <v>60</v>
+      </c>
+      <c r="C509" s="1">
+        <v>289800</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="str">
+        <v>Xymex-MPS (Fungal Diastase, Papain, Simethicone)</v>
+      </c>
+      <c r="B510" s="1">
+        <v>90</v>
+      </c>
+      <c r="C510" s="1">
+        <v>434700</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="str">
+        <v>Xymex-MPS (Fungal Diastase, Papain, Simethicone)</v>
+      </c>
+      <c r="B511" s="1">
+        <v>45</v>
+      </c>
+      <c r="C511" s="1">
+        <v>217350</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="str">
+        <v>Zafular (Bezafibrat 200mg)</v>
+      </c>
+      <c r="B512" s="1">
+        <v>30</v>
+      </c>
+      <c r="C512" s="1">
+        <v>155250</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="str">
+        <v>Zafular (Bezafibrat 200mg)</v>
+      </c>
+      <c r="B513" s="1">
+        <v>180</v>
+      </c>
+      <c r="C513" s="1">
+        <v>931500</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="str">
+        <v>Zafular (Bezafibrat 200mg)</v>
+      </c>
+      <c r="B514" s="1">
+        <v>30</v>
+      </c>
+      <c r="C514" s="1">
+        <v>155250</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="str">
+        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
+      </c>
+      <c r="B515" s="1">
+        <v>28</v>
+      </c>
+      <c r="C515" s="1">
+        <v>213220</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="str">
+        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
+      </c>
+      <c r="B516" s="1">
+        <v>60</v>
+      </c>
+      <c r="C516" s="1">
+        <v>456900</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="str">
+        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
+      </c>
+      <c r="B517" s="1">
+        <v>60</v>
+      </c>
+      <c r="C517" s="1">
+        <v>456900</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="str">
+        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
+      </c>
+      <c r="B518" s="1">
+        <v>280</v>
+      </c>
+      <c r="C518" s="1">
+        <v>2132200</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="str">
+        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
+      </c>
+      <c r="B519" s="1">
+        <v>555</v>
+      </c>
+      <c r="C519" s="1">
+        <v>4226325</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="str">
+        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
+      </c>
+      <c r="B520" s="1">
+        <v>180</v>
+      </c>
+      <c r="C520" s="1">
+        <v>1370700</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="str">
+        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
+      </c>
+      <c r="B521" s="1">
+        <v>88</v>
+      </c>
+      <c r="C521" s="1">
+        <v>670120</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="str">
+        <v>Zantagel (Oxethazaine, dried aluminum, magnesium)</v>
+      </c>
+      <c r="B522" s="1">
+        <v>116</v>
+      </c>
+      <c r="C522" s="1">
+        <v>883340</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="str">
+        <v>Zedcal-OP (Calcium, zinc, D3)</v>
+      </c>
+      <c r="B523" s="1">
+        <v>150</v>
+      </c>
+      <c r="C523" s="1">
+        <v>793500</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="str">
+        <v>Zedcal-OP (Calcium, zinc, D3)</v>
+      </c>
+      <c r="B524" s="1">
+        <v>30</v>
+      </c>
+      <c r="C524" s="1">
+        <v>158700</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="str">
+        <v>Zedcal-OP (Calcium, zinc, D3)</v>
+      </c>
+      <c r="B525" s="1">
+        <v>15</v>
+      </c>
+      <c r="C525" s="1">
+        <v>79350</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="str">
+        <v>Zedcal-OP (Calcium, zinc, D3)</v>
+      </c>
+      <c r="B526" s="1">
+        <v>360</v>
+      </c>
+      <c r="C526" s="1">
+        <v>1904400</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="str">
+        <v>Zedcal-OP (Calcium, zinc, D3)</v>
+      </c>
+      <c r="B527" s="1">
+        <v>120</v>
+      </c>
+      <c r="C527" s="1">
+        <v>634800</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="str">
+        <v>Zedcal-OP (Calcium, zinc, D3)</v>
+      </c>
+      <c r="B528" s="1">
+        <v>60</v>
+      </c>
+      <c r="C528" s="1">
+        <v>317400</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="str">
+        <v>Zentel (albendazole)</v>
+      </c>
+      <c r="B529" s="1">
+        <v>4</v>
+      </c>
+      <c r="C529" s="1">
+        <v>49200</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="str">
+        <v>Zentel (albendazole)</v>
+      </c>
+      <c r="B530" s="1">
+        <v>14</v>
+      </c>
+      <c r="C530" s="1">
+        <v>172200</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="str">
+        <v>Zentel (albendazole)</v>
+      </c>
+      <c r="B531" s="1">
+        <v>2</v>
+      </c>
+      <c r="C531" s="1">
+        <v>24600</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="str">
+        <v>Zentel (albendazole)</v>
+      </c>
+      <c r="B532" s="1">
+        <v>2</v>
+      </c>
+      <c r="C532" s="1">
+        <v>24600</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B110" s="1">
-        <v>101679</v>
-      </c>
-      <c r="C110" s="1">
-        <v>NaN</v>
+      <c r="B533" s="1">
+        <v>100906</v>
+      </c>
+      <c r="C533" s="1">
+        <v>707434593</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C110"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C533"/>
   </ignoredErrors>
 </worksheet>
 </file>